--- a/tests/regression_data/performance_analysis_kacker_okapuu_win.xlsx
+++ b/tests/regression_data/performance_analysis_kacker_okapuu_win.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023341582785602</v>
+        <v>2.023341589777442</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29999999995008</v>
+        <v>2.29999999993997</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69935879134064</v>
+        <v>2.699358790981029</v>
       </c>
       <c r="E2" t="n">
-        <v>89.54319873366498</v>
+        <v>89.54319862838828</v>
       </c>
       <c r="F2" t="n">
-        <v>76.81765902326518</v>
+        <v>76.81765928167144</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421162063715225</v>
+        <v>0.1421162024770734</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.9597752296367</v>
+        <v>-75.95977548414851</v>
       </c>
       <c r="I2" t="n">
-        <v>130301.9353056999</v>
+        <v>130301.9357266625</v>
       </c>
       <c r="J2" t="n">
-        <v>80.08723743435765</v>
+        <v>80.0872376930931</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.87212029117861</v>
+        <v>-23.87211849041501</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6445930788878</v>
+        <v>133.6445912477382</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>373512.9913215978</v>
+        <v>373512.991159218</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7106315403886645</v>
+        <v>0.7106315403413289</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078552334510469</v>
+        <v>2.078552334201465</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999897346</v>
+        <v>2.399999999866825</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701669617770385</v>
+        <v>2.701669617947899</v>
       </c>
       <c r="E3" t="n">
-        <v>89.52557291089019</v>
+        <v>89.5255729094776</v>
       </c>
       <c r="F3" t="n">
-        <v>75.98406130880338</v>
+        <v>75.98406129739259</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512585863657688</v>
+        <v>0.1512585864798354</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.13531989516915</v>
+        <v>-75.13531988387243</v>
       </c>
       <c r="I3" t="n">
-        <v>134798.6310454873</v>
+        <v>134798.6310341011</v>
       </c>
       <c r="J3" t="n">
-        <v>82.85103321787786</v>
+        <v>82.85103321087961</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41202579305824</v>
+        <v>-26.41202583029477</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9419859199692</v>
+        <v>140.9419859731125</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371889.8658320382</v>
+        <v>371889.865839531</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983877184056279</v>
+        <v>0.6983877184285719</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.35928887173327</v>
+        <v>79.35928886010146</v>
       </c>
       <c r="D2" t="n">
-        <v>79.35928887173327</v>
+        <v>79.35928886010146</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.35928887173327</v>
+        <v>79.35928886010146</v>
       </c>
       <c r="H2" t="n">
-        <v>79.35928887173327</v>
+        <v>79.35928886010146</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3144,97 +3144,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4602703964032</v>
+        <v>292.4602703971235</v>
       </c>
       <c r="L2" t="n">
-        <v>132943.6968106671</v>
+        <v>132943.6968118109</v>
       </c>
       <c r="M2" t="n">
-        <v>1.584391130333364</v>
+        <v>1.584391130343086</v>
       </c>
       <c r="N2" t="n">
-        <v>334727.1003389477</v>
+        <v>334727.1003394628</v>
       </c>
       <c r="O2" t="n">
-        <v>418635.4827234761</v>
+        <v>418635.4827241983</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687717.5476774441</v>
+        <v>-687717.5476794465</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7177923741856</v>
+        <v>717.7177923742183</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653328247809</v>
+        <v>1006.653328247847</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575411873008</v>
+        <v>1.402575411872997</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987180512477</v>
+        <v>0.9994987180512527</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9714983281399</v>
+        <v>342.9714983285626</v>
       </c>
       <c r="W2" t="n">
-        <v>186371.0551315416</v>
+        <v>186371.0551331445</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365640063014052e-06</v>
+        <v>5.365640062967902e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132877.7430103815</v>
+        <v>132877.7430115255</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525714821344249e-06</v>
+        <v>7.525714821279458e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432196313606131</v>
+        <v>0.003432196313597691</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817668480600313e-05</v>
+        <v>1.817668480603836e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02583243128919916</v>
+        <v>0.02583243128925343</v>
       </c>
       <c r="AD2" t="n">
-        <v>132943.6968106671</v>
+        <v>132943.6968118109</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.584391130333364</v>
+        <v>1.584391130343086</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584391130333364</v>
+        <v>1.584391130343086</v>
       </c>
       <c r="AG2" t="n">
-        <v>334727.1003389477</v>
+        <v>334727.1003394628</v>
       </c>
       <c r="AH2" t="n">
-        <v>418635.4827234761</v>
+        <v>418635.4827241983</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7177923741856</v>
+        <v>717.7177923742183</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653328247809</v>
+        <v>1006.653328247847</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9714983281399</v>
+        <v>342.9714983285626</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987180512477</v>
+        <v>0.9994987180512527</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817668480600313e-05</v>
+        <v>1.817668480603836e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02583243128919916</v>
+        <v>0.02583243128925343</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3423,16 +3423,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.231387416326373</v>
+        <v>0.231387416292173</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.231387416326373</v>
+        <v>0.231387416292173</v>
       </c>
       <c r="DB2" t="n">
-        <v>180960.2690477261</v>
+        <v>180960.2690219622</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.699358791333558</v>
+        <v>2.699358790954472</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3481,325 +3481,325 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>261.2176164878198</v>
+        <v>261.2176222339215</v>
       </c>
       <c r="DO2" t="n">
-        <v>107.8099286471342</v>
+        <v>107.8099302919264</v>
       </c>
       <c r="DP2" t="n">
-        <v>237.9320542690234</v>
+        <v>237.9320598322001</v>
       </c>
       <c r="DQ2" t="n">
-        <v>65.62413742779584</v>
+        <v>65.62413760280089</v>
       </c>
       <c r="DR2" t="n">
-        <v>261.2176164878197</v>
+        <v>261.2176222339215</v>
       </c>
       <c r="DS2" t="n">
-        <v>107.8099286471342</v>
+        <v>107.8099302919264</v>
       </c>
       <c r="DT2" t="n">
-        <v>237.9320542690234</v>
+        <v>237.9320598322001</v>
       </c>
       <c r="DU2" t="n">
-        <v>65.62413742779583</v>
+        <v>65.62413760280089</v>
       </c>
       <c r="DV2" t="n">
-        <v>261.5538395259431</v>
+        <v>261.5538380275268</v>
       </c>
       <c r="DW2" t="n">
-        <v>87504.69062621042</v>
+        <v>87504.68877612335</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.166276195314876</v>
+        <v>1.166276177345088</v>
       </c>
       <c r="DY2" t="n">
-        <v>312637.9774898972</v>
+        <v>312637.9764194046</v>
       </c>
       <c r="DZ2" t="n">
-        <v>387667.1095065938</v>
+        <v>387667.1080058176</v>
       </c>
       <c r="EA2" t="n">
-        <v>3790.988615651592</v>
+        <v>3790.988615978651</v>
       </c>
       <c r="EB2" t="n">
-        <v>-603880.5185162199</v>
+        <v>-603880.5144220602</v>
       </c>
       <c r="EC2" t="n">
-        <v>716.5889934738265</v>
+        <v>716.588993431793</v>
       </c>
       <c r="ED2" t="n">
-        <v>1005.256678809744</v>
+        <v>1005.25667875555</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.402835778898217</v>
+        <v>1.402835778904876</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.9993384387292267</v>
+        <v>0.9993384387232461</v>
       </c>
       <c r="EG2" t="n">
-        <v>324.3211386339191</v>
+        <v>324.3211377037305</v>
       </c>
       <c r="EH2" t="n">
-        <v>122673.8297084643</v>
+        <v>122673.8271146426</v>
       </c>
       <c r="EI2" t="n">
-        <v>8.151697899841484e-06</v>
+        <v>8.151698072201403e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>87447.0351795646</v>
+        <v>87447.03333016495</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.143549347266709e-05</v>
+        <v>1.143549371451403e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.003836601532582324</v>
+        <v>0.003836601554504166</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.663030170428224e-05</v>
+        <v>1.663030162760424e-05</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.02346192966939898</v>
+        <v>0.02346192955244631</v>
       </c>
       <c r="EO2" t="n">
-        <v>87504.69062621042</v>
+        <v>87504.68877612335</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.166276195314876</v>
+        <v>1.166276177345088</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.166276195314876</v>
+        <v>1.166276177345088</v>
       </c>
       <c r="ER2" t="n">
-        <v>312637.9774898972</v>
+        <v>312637.9764194046</v>
       </c>
       <c r="ES2" t="n">
-        <v>387667.1095065938</v>
+        <v>387667.1080058176</v>
       </c>
       <c r="ET2" t="n">
-        <v>3790.988615651592</v>
+        <v>3790.988615978651</v>
       </c>
       <c r="EU2" t="n">
-        <v>716.5889934738265</v>
+        <v>716.588993431793</v>
       </c>
       <c r="EV2" t="n">
-        <v>1005.256678809744</v>
+        <v>1005.25667875555</v>
       </c>
       <c r="EW2" t="n">
-        <v>324.3211386339191</v>
+        <v>324.3211377037305</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.9993384387292267</v>
+        <v>0.9993384387232461</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.663030170428224e-05</v>
+        <v>1.663030162760424e-05</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.02346192966939898</v>
+        <v>0.02346192955244631</v>
       </c>
       <c r="FA2" t="n">
-        <v>295.5911242361727</v>
+        <v>295.5911242357258</v>
       </c>
       <c r="FB2" t="n">
-        <v>134171.9685258411</v>
+        <v>134171.9683760789</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.582036722915424</v>
+        <v>1.582036721151148</v>
       </c>
       <c r="FD2" t="n">
-        <v>336974.7888202452</v>
+        <v>336974.78882023</v>
       </c>
       <c r="FE2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FF2" t="n">
-        <v>3790.988615663961</v>
+        <v>3790.988615983877</v>
       </c>
       <c r="FG2" t="n">
-        <v>-698798.1557820525</v>
+        <v>-698798.1558750229</v>
       </c>
       <c r="FH2" t="n">
-        <v>717.8532654824643</v>
+        <v>717.85326548207</v>
       </c>
       <c r="FI2" t="n">
-        <v>1006.75873167504</v>
+        <v>1006.758731672578</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.402457549591843</v>
+        <v>1.402457549589185</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.9995340929334634</v>
+        <v>0.9995340929339721</v>
       </c>
       <c r="FL2" t="n">
-        <v>344.8001192152944</v>
+        <v>344.8001192148805</v>
       </c>
       <c r="FM2" t="n">
-        <v>188083.7932193482</v>
+        <v>188083.7930091468</v>
       </c>
       <c r="FN2" t="n">
-        <v>5.316779201883569e-06</v>
+        <v>5.316779207825569e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>134110.1506238717</v>
+        <v>134110.1504742452</v>
       </c>
       <c r="FP2" t="n">
-        <v>7.456557131194505e-06</v>
+        <v>7.456557139513776e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.003395546168361196</v>
+        <v>0.003395546168352472</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.832896897522712e-05</v>
+        <v>1.832896897518385e-05</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.02606674484506858</v>
+        <v>0.02606674484498724</v>
       </c>
       <c r="FT2" t="n">
-        <v>134171.9685258411</v>
+        <v>134171.9683760789</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.582036722915424</v>
+        <v>1.582036721151148</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.582036722915424</v>
+        <v>1.582036721151148</v>
       </c>
       <c r="FW2" t="n">
-        <v>336974.7888202452</v>
+        <v>336974.78882023</v>
       </c>
       <c r="FX2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FY2" t="n">
-        <v>3790.988615663961</v>
+        <v>3790.988615983877</v>
       </c>
       <c r="FZ2" t="n">
-        <v>717.8532654824643</v>
+        <v>717.85326548207</v>
       </c>
       <c r="GA2" t="n">
-        <v>1006.75873167504</v>
+        <v>1006.758731672578</v>
       </c>
       <c r="GB2" t="n">
-        <v>344.8001192152944</v>
+        <v>344.8001192148805</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.9995340929334634</v>
+        <v>0.9995340929339721</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.832896897522712e-05</v>
+        <v>1.832896897518385e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.02606674484506858</v>
+        <v>0.02606674484498724</v>
       </c>
       <c r="GF2" t="n">
-        <v>295.5911242361727</v>
+        <v>295.5911242357258</v>
       </c>
       <c r="GG2" t="n">
-        <v>134171.9685258411</v>
+        <v>134171.9683760789</v>
       </c>
       <c r="GH2" t="n">
-        <v>1.582036722915424</v>
+        <v>1.582036721151148</v>
       </c>
       <c r="GI2" t="n">
-        <v>336974.7888202452</v>
+        <v>336974.78882023</v>
       </c>
       <c r="GJ2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GK2" t="n">
-        <v>3790.988615663961</v>
+        <v>3790.988615983877</v>
       </c>
       <c r="GL2" t="n">
-        <v>-698798.1557820525</v>
+        <v>-698798.1558750229</v>
       </c>
       <c r="GM2" t="n">
-        <v>717.8532654824643</v>
+        <v>717.85326548207</v>
       </c>
       <c r="GN2" t="n">
-        <v>1006.75873167504</v>
+        <v>1006.758731672578</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.402457549591843</v>
+        <v>1.402457549589185</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.9995340929334634</v>
+        <v>0.9995340929339721</v>
       </c>
       <c r="GQ2" t="n">
-        <v>344.8001192152944</v>
+        <v>344.8001192148805</v>
       </c>
       <c r="GR2" t="n">
-        <v>188083.7932193482</v>
+        <v>188083.7930091468</v>
       </c>
       <c r="GS2" t="n">
-        <v>5.316779201883569e-06</v>
+        <v>5.316779207825569e-06</v>
       </c>
       <c r="GT2" t="n">
-        <v>134110.1506238717</v>
+        <v>134110.1504742452</v>
       </c>
       <c r="GU2" t="n">
-        <v>7.456557131194505e-06</v>
+        <v>7.456557139513776e-06</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.003395546168361196</v>
+        <v>0.003395546168352472</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.832896897522712e-05</v>
+        <v>1.832896897518385e-05</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.02606674484506858</v>
+        <v>0.02606674484498724</v>
       </c>
       <c r="GY2" t="n">
-        <v>134171.9685258411</v>
+        <v>134171.9683760789</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.582036722915424</v>
+        <v>1.582036721151148</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.582036722915424</v>
+        <v>1.582036721151148</v>
       </c>
       <c r="HB2" t="n">
-        <v>336974.7888202452</v>
+        <v>336974.78882023</v>
       </c>
       <c r="HC2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HD2" t="n">
-        <v>3790.988615663961</v>
+        <v>3790.988615983877</v>
       </c>
       <c r="HE2" t="n">
-        <v>717.8532654824643</v>
+        <v>717.85326548207</v>
       </c>
       <c r="HF2" t="n">
-        <v>1006.75873167504</v>
+        <v>1006.758731672578</v>
       </c>
       <c r="HG2" t="n">
-        <v>344.8001192152944</v>
+        <v>344.8001192148805</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.9995340929334634</v>
+        <v>0.9995340929339721</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.832896897522712e-05</v>
+        <v>1.832896897518385e-05</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.02606674484506858</v>
+        <v>0.02606674484498724</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.8054288955326835</v>
+        <v>0.8054289155600628</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.8054288955326834</v>
+        <v>0.8054289155600628</v>
       </c>
       <c r="HM2" t="n">
-        <v>479227.2280655858</v>
+        <v>479227.2334330661</v>
       </c>
       <c r="HN2" t="n">
-        <v>2.699358791372426</v>
+        <v>2.699358790963678</v>
       </c>
       <c r="HO2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.01760661569108142</v>
+        <v>0.01760661587074862</v>
       </c>
       <c r="HQ2" t="n">
         <v>0</v>
@@ -3808,16 +3808,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.04914148720070381</v>
+        <v>0.04914148724186166</v>
       </c>
       <c r="HT2" t="n">
         <v>0</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.08202817143102836</v>
+        <v>0.08202817165185342</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.942584981762252e-12</v>
+        <v>1.564498530726155e-12</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -3826,664 +3826,664 @@
         <v>165.3032</v>
       </c>
       <c r="HY2" t="n">
-        <v>261.2176164878198</v>
+        <v>261.2176222339215</v>
       </c>
       <c r="HZ2" t="n">
-        <v>107.8099286471342</v>
+        <v>107.8099302919264</v>
       </c>
       <c r="IA2" t="n">
-        <v>237.9320542690235</v>
+        <v>237.9320598322001</v>
       </c>
       <c r="IB2" t="n">
-        <v>65.62413742779584</v>
+        <v>65.62413760280089</v>
       </c>
       <c r="IC2" t="n">
-        <v>129.992042784669</v>
+        <v>129.9920472570358</v>
       </c>
       <c r="ID2" t="n">
-        <v>107.8099286471342</v>
+        <v>107.8099302919264</v>
       </c>
       <c r="IE2" t="n">
-        <v>72.62885426902346</v>
+        <v>72.62885983220013</v>
       </c>
       <c r="IF2" t="n">
-        <v>33.96716398848079</v>
+        <v>33.96716561705429</v>
       </c>
       <c r="IG2" t="n">
-        <v>261.5538395260493</v>
+        <v>261.5538380273268</v>
       </c>
       <c r="IH2" t="n">
-        <v>87504.69062616238</v>
+        <v>87504.68877597259</v>
       </c>
       <c r="II2" t="n">
-        <v>1.16627619531376</v>
+        <v>1.166276177343972</v>
       </c>
       <c r="IJ2" t="n">
-        <v>312637.9774899736</v>
+        <v>312637.9764192616</v>
       </c>
       <c r="IK2" t="n">
-        <v>387667.1095067008</v>
+        <v>387667.1080056171</v>
       </c>
       <c r="IL2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978378</v>
       </c>
       <c r="IM2" t="n">
-        <v>-603880.5185166632</v>
+        <v>-603880.5144214313</v>
       </c>
       <c r="IN2" t="n">
-        <v>716.588993473829</v>
+        <v>716.5889934317877</v>
       </c>
       <c r="IO2" t="n">
-        <v>1005.256678809744</v>
+        <v>1005.256678755545</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.402835778898211</v>
+        <v>1.402835778904878</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.9993384387292285</v>
+        <v>0.9993384387232446</v>
       </c>
       <c r="IR2" t="n">
-        <v>324.3211386339849</v>
+        <v>324.3211377036064</v>
       </c>
       <c r="IS2" t="n">
-        <v>122673.8297083967</v>
+        <v>122673.8271144313</v>
       </c>
       <c r="IT2" t="n">
-        <v>8.151697899845972e-06</v>
+        <v>8.15169807221544e-06</v>
       </c>
       <c r="IU2" t="n">
-        <v>87447.03517951677</v>
+        <v>87447.03333001418</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.143549347267334e-05</v>
+        <v>1.143549371453374e-05</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.003836601532580744</v>
+        <v>0.003836601554507105</v>
       </c>
       <c r="IX2" t="n">
-        <v>1.663030170428764e-05</v>
+        <v>1.663030162759402e-05</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.02346192966940721</v>
+        <v>0.02346192955243075</v>
       </c>
       <c r="IZ2" t="n">
-        <v>87504.69062616238</v>
+        <v>87504.68877597259</v>
       </c>
       <c r="JA2" t="n">
-        <v>1.16627619531376</v>
+        <v>1.166276177343972</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.16627619531376</v>
+        <v>1.166276177343972</v>
       </c>
       <c r="JC2" t="n">
-        <v>312637.9774899736</v>
+        <v>312637.9764192616</v>
       </c>
       <c r="JD2" t="n">
-        <v>387667.1095067008</v>
+        <v>387667.1080056171</v>
       </c>
       <c r="JE2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978378</v>
       </c>
       <c r="JF2" t="n">
-        <v>716.588993473829</v>
+        <v>716.5889934317877</v>
       </c>
       <c r="JG2" t="n">
-        <v>1005.256678809744</v>
+        <v>1005.256678755545</v>
       </c>
       <c r="JH2" t="n">
-        <v>324.3211386339849</v>
+        <v>324.3211377036064</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.9993384387292285</v>
+        <v>0.9993384387232446</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.663030170428764e-05</v>
+        <v>1.663030162759402e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02346192966940721</v>
+        <v>0.02346192955243075</v>
       </c>
       <c r="JL2" t="n">
-        <v>295.5911242361797</v>
+        <v>295.591124235826</v>
       </c>
       <c r="JM2" t="n">
-        <v>134171.9685289174</v>
+        <v>134171.968376365</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.582036722951676</v>
+        <v>1.582036721153984</v>
       </c>
       <c r="JO2" t="n">
-        <v>336974.7888202441</v>
+        <v>336974.7888203015</v>
       </c>
       <c r="JP2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3790.988615657383</v>
+        <v>3790.988615983603</v>
       </c>
       <c r="JR2" t="n">
-        <v>-698798.1557801347</v>
+        <v>-698798.1558752219</v>
       </c>
       <c r="JS2" t="n">
-        <v>717.8532654824722</v>
+        <v>717.8532654820749</v>
       </c>
       <c r="JT2" t="n">
-        <v>1006.75873167509</v>
+        <v>1006.758731672586</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.402457549591898</v>
+        <v>1.402457549589186</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.999534092933453</v>
+        <v>0.9995340929339723</v>
       </c>
       <c r="JW2" t="n">
-        <v>344.8001192153018</v>
+        <v>344.8001192149391</v>
       </c>
       <c r="JX2" t="n">
-        <v>188083.793223666</v>
+        <v>188083.793009548</v>
       </c>
       <c r="JY2" t="n">
-        <v>5.31677920176151e-06</v>
+        <v>5.31677920781423e-06</v>
       </c>
       <c r="JZ2" t="n">
-        <v>134110.1506269453</v>
+        <v>134110.1504745313</v>
       </c>
       <c r="KA2" t="n">
-        <v>7.456557131023617e-06</v>
+        <v>7.456557139497872e-06</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.0033955461683614</v>
+        <v>0.003395546168351334</v>
       </c>
       <c r="KC2" t="n">
-        <v>1.832896897522791e-05</v>
+        <v>1.832896897518875e-05</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.02606674484507009</v>
+        <v>0.02606674484499481</v>
       </c>
       <c r="KE2" t="n">
-        <v>134171.9685289174</v>
+        <v>134171.968376365</v>
       </c>
       <c r="KF2" t="n">
-        <v>1.582036722951676</v>
+        <v>1.582036721153984</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.582036722951676</v>
+        <v>1.582036721153984</v>
       </c>
       <c r="KH2" t="n">
-        <v>336974.7888202441</v>
+        <v>336974.7888203015</v>
       </c>
       <c r="KI2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="KJ2" t="n">
-        <v>3790.988615657383</v>
+        <v>3790.988615983603</v>
       </c>
       <c r="KK2" t="n">
-        <v>717.8532654824722</v>
+        <v>717.8532654820749</v>
       </c>
       <c r="KL2" t="n">
-        <v>1006.75873167509</v>
+        <v>1006.758731672586</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8001192153018</v>
+        <v>344.8001192149391</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.999534092933453</v>
+        <v>0.9995340929339723</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.832896897522791e-05</v>
+        <v>1.832896897518875e-05</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.02606674484507009</v>
+        <v>0.02606674484499481</v>
       </c>
       <c r="KQ2" t="n">
-        <v>269.9868330079777</v>
+        <v>269.9868320898125</v>
       </c>
       <c r="KR2" t="n">
-        <v>97760.63700441031</v>
+        <v>97760.6357323619</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.262219948802423</v>
+        <v>1.262219936676148</v>
       </c>
       <c r="KT2" t="n">
-        <v>318664.7267066801</v>
+        <v>318664.7260506725</v>
       </c>
       <c r="KU2" t="n">
-        <v>396116.0751005667</v>
+        <v>396116.0741808555</v>
       </c>
       <c r="KV2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978379</v>
       </c>
       <c r="KW2" t="n">
-        <v>-627400.9352086567</v>
+        <v>-627400.9327356898</v>
       </c>
       <c r="KX2" t="n">
-        <v>716.8417443749813</v>
+        <v>716.8417443450869</v>
       </c>
       <c r="KY2" t="n">
-        <v>1005.567732162806</v>
+        <v>1005.567732124637</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.402775075605518</v>
+        <v>1.402775075610772</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9993788827705907</v>
+        <v>0.9993788827666054</v>
       </c>
       <c r="LB2" t="n">
-        <v>329.5143192249162</v>
+        <v>329.5143186639056</v>
       </c>
       <c r="LC2" t="n">
-        <v>137051.4464287456</v>
+        <v>137051.4446454078</v>
       </c>
       <c r="LD2" t="n">
-        <v>7.29653006996836e-06</v>
+        <v>7.296530164912105e-06</v>
       </c>
       <c r="LE2" t="n">
-        <v>97700.2292185626</v>
+        <v>97700.22794690398</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.02353905205578e-05</v>
+        <v>1.023539065378085e-05</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.003716989841487889</v>
+        <v>0.003716989854090228</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.705904113116175e-05</v>
+        <v>1.705904108475692e-05</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.02411669247142472</v>
+        <v>0.02411669240044451</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97760.63700441031</v>
+        <v>97760.6357323619</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.262219948802423</v>
+        <v>1.262219936676148</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.262219948802423</v>
+        <v>1.262219936676148</v>
       </c>
       <c r="LM2" t="n">
-        <v>318664.7267066801</v>
+        <v>318664.7260506725</v>
       </c>
       <c r="LN2" t="n">
-        <v>396116.0751005667</v>
+        <v>396116.0741808555</v>
       </c>
       <c r="LO2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978379</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8417443749813</v>
+        <v>716.8417443450869</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.567732162806</v>
+        <v>1005.567732124637</v>
       </c>
       <c r="LR2" t="n">
-        <v>329.5143192249162</v>
+        <v>329.5143186639056</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993788827705907</v>
+        <v>0.9993788827666054</v>
       </c>
       <c r="LT2" t="n">
-        <v>1.705904113116175e-05</v>
+        <v>1.705904108475692e-05</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.02411669247142472</v>
+        <v>0.02411669240044451</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.8054288955325201</v>
+        <v>0.805428915560371</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.40081273558728</v>
+        <v>0.4008127505270226</v>
       </c>
       <c r="LX2" t="n">
-        <v>237570.4734548098</v>
+        <v>237570.4790635575</v>
       </c>
       <c r="LY2" t="n">
-        <v>2.699358791369844</v>
+        <v>2.699358790961095</v>
       </c>
       <c r="LZ2" t="n">
-        <v>382453.5011353465</v>
+        <v>382453.5002156352</v>
       </c>
       <c r="MA2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MB2" t="n">
-        <v>133.6445930788878</v>
+        <v>133.6445912477382</v>
       </c>
       <c r="MC2" t="n">
-        <v>122.2114299059294</v>
+        <v>122.2114299313003</v>
       </c>
       <c r="MD2" t="n">
-        <v>-54.08552171856732</v>
+        <v>-54.08551713649314</v>
       </c>
       <c r="ME2" t="n">
-        <v>-23.87212029117861</v>
+        <v>-23.87211849041501</v>
       </c>
       <c r="MF2" t="n">
-        <v>251.1315289185308</v>
+        <v>251.1315249279734</v>
       </c>
       <c r="MG2" t="n">
-        <v>122.2114299059294</v>
+        <v>122.2114299313003</v>
       </c>
       <c r="MH2" t="n">
-        <v>-219.3887217185673</v>
+        <v>-219.3887171364931</v>
       </c>
       <c r="MI2" t="n">
-        <v>-60.87981886842314</v>
+        <v>-60.87981835462848</v>
       </c>
       <c r="MJ2" t="n">
-        <v>238.4919654482169</v>
+        <v>238.4919655302931</v>
       </c>
       <c r="MK2" t="n">
-        <v>60000.00000030317</v>
+        <v>60000.00000056692</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.8770577778426889</v>
+        <v>0.8770577775437705</v>
       </c>
       <c r="MM2" t="n">
-        <v>296172.0083515624</v>
+        <v>296172.0084103898</v>
       </c>
       <c r="MN2" t="n">
-        <v>364582.55269208</v>
+        <v>364582.5527745239</v>
       </c>
       <c r="MO2" t="n">
-        <v>3806.836359106978</v>
+        <v>3806.836359451404</v>
       </c>
       <c r="MP2" t="n">
-        <v>-543317.332731077</v>
+        <v>-543317.333043227</v>
       </c>
       <c r="MQ2" t="n">
-        <v>716.0542669147861</v>
+        <v>716.0542669159075</v>
       </c>
       <c r="MR2" t="n">
-        <v>1004.48659490249</v>
+        <v>1004.486594902474</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.402807917380973</v>
+        <v>1.402807917378753</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.9992935019424102</v>
+        <v>0.9992935019434781</v>
       </c>
       <c r="MU2" t="n">
-        <v>309.6759322615991</v>
+        <v>309.6759323149721</v>
       </c>
       <c r="MV2" t="n">
-        <v>84109.12435828405</v>
+        <v>84109.1243586106</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.188931649960173e-05</v>
+        <v>1.188931649955557e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>59957.69151012129</v>
+        <v>59957.69151044893</v>
       </c>
       <c r="MY2" t="n">
-        <v>1.667842731788953e-05</v>
+        <v>1.667842731779839e-05</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.004206072378243445</v>
+        <v>0.004206072376783151</v>
       </c>
       <c r="NA2" t="n">
-        <v>1.542868822003494e-05</v>
+        <v>1.542868822437505e-05</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.02163589355484113</v>
+        <v>0.02163589356139749</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000030317</v>
+        <v>60000.00000056692</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8770577778426889</v>
+        <v>0.8770577775437705</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.8770577778426889</v>
+        <v>0.8770577775437705</v>
       </c>
       <c r="NF2" t="n">
-        <v>296172.0083515624</v>
+        <v>296172.0084103898</v>
       </c>
       <c r="NG2" t="n">
-        <v>364582.55269208</v>
+        <v>364582.5527745239</v>
       </c>
       <c r="NH2" t="n">
-        <v>3806.836359106978</v>
+        <v>3806.836359451404</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0542669147861</v>
+        <v>716.0542669159075</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.48659490249</v>
+        <v>1004.486594902474</v>
       </c>
       <c r="NK2" t="n">
-        <v>309.6759322615991</v>
+        <v>309.6759323149721</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992935019424102</v>
+        <v>0.9992935019434781</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.542868822003494e-05</v>
+        <v>1.542868822437505e-05</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.02163589355484113</v>
+        <v>0.02163589356139749</v>
       </c>
       <c r="NO2" t="n">
-        <v>247.4095314199744</v>
+        <v>247.409531257579</v>
       </c>
       <c r="NP2" t="n">
-        <v>68204.00528106229</v>
+        <v>68204.00504537715</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.9610201096759156</v>
+        <v>0.9610201069855778</v>
       </c>
       <c r="NR2" t="n">
-        <v>302542.5666714178</v>
+        <v>302542.5665556038</v>
       </c>
       <c r="NS2" t="n">
-        <v>373512.9913215978</v>
+        <v>373512.991159218</v>
       </c>
       <c r="NT2" t="n">
-        <v>3806.836359125109</v>
+        <v>3806.836359460039</v>
       </c>
       <c r="NU2" t="n">
-        <v>-568334.6084820668</v>
+        <v>-568334.6081090989</v>
       </c>
       <c r="NV2" t="n">
-        <v>716.2272327164814</v>
+        <v>716.2272327127101</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.71652803854</v>
+        <v>1004.716528032046</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402790179071921</v>
+        <v>1.402790179070242</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9993203859029928</v>
+        <v>0.9993203859032452</v>
       </c>
       <c r="NZ2" t="n">
-        <v>315.418968709418</v>
+        <v>315.4189686057892</v>
       </c>
       <c r="OA2" t="n">
-        <v>95611.0506087434</v>
+        <v>95611.05027825935</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.045904206295326e-05</v>
+        <v>1.045904209910542e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>68157.77016060888</v>
+        <v>68157.76992509999</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.467184148841096e-05</v>
+        <v>1.46718415391073e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004054760330790148</v>
+        <v>0.004054760333431491</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.589816727328047e-05</v>
+        <v>1.589816726477823e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02234742248009837</v>
+        <v>0.02234742246718149</v>
       </c>
       <c r="OH2" t="n">
-        <v>68204.00528106229</v>
+        <v>68204.00504537715</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.9610201096759156</v>
+        <v>0.9610201069855778</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.9610201096759156</v>
+        <v>0.9610201069855778</v>
       </c>
       <c r="OK2" t="n">
-        <v>302542.5666714178</v>
+        <v>302542.5665556038</v>
       </c>
       <c r="OL2" t="n">
-        <v>373512.9913215978</v>
+        <v>373512.991159218</v>
       </c>
       <c r="OM2" t="n">
-        <v>3806.836359125109</v>
+        <v>3806.836359460039</v>
       </c>
       <c r="ON2" t="n">
-        <v>716.2272327164814</v>
+        <v>716.2272327127101</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.71652803854</v>
+        <v>1004.716528032046</v>
       </c>
       <c r="OP2" t="n">
-        <v>315.418968709418</v>
+        <v>315.4189686057892</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9993203859029928</v>
+        <v>0.9993203859032452</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.589816727328047e-05</v>
+        <v>1.589816726477823e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02234742248009837</v>
+        <v>0.02234742246718149</v>
       </c>
       <c r="OT2" t="n">
-        <v>269.9721839784751</v>
+        <v>269.972183060388</v>
       </c>
       <c r="OU2" t="n">
-        <v>92506.54992843606</v>
+        <v>92506.5487219178</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.194408015648986</v>
+        <v>1.19440800413717</v>
       </c>
       <c r="OW2" t="n">
-        <v>318666.3688725219</v>
+        <v>318666.3682164761</v>
       </c>
       <c r="OX2" t="n">
-        <v>396116.0751005668</v>
+        <v>396116.0741808494</v>
       </c>
       <c r="OY2" t="n">
-        <v>3806.836359116474</v>
+        <v>3806.836359451404</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-631623.8508187744</v>
+        <v>-631623.848333906</v>
       </c>
       <c r="PA2" t="n">
-        <v>716.8246501787215</v>
+        <v>716.8246501488904</v>
       </c>
       <c r="PB2" t="n">
-        <v>1005.460590531586</v>
+        <v>1005.460590493873</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.402659060735286</v>
+        <v>1.402659060741049</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.999411919795604</v>
+        <v>0.9994119197918551</v>
       </c>
       <c r="PE2" t="n">
-        <v>329.502590850264</v>
+        <v>329.5025902894296</v>
       </c>
       <c r="PF2" t="n">
-        <v>129679.2161658324</v>
+        <v>129679.2144745275</v>
       </c>
       <c r="PG2" t="n">
-        <v>7.711335937758993e-06</v>
+        <v>7.711336038331934e-06</v>
       </c>
       <c r="PH2" t="n">
-        <v>92452.41398708351</v>
+        <v>92452.41278091894</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.081637522347128e-05</v>
+        <v>1.081637536458527e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.003716489591476169</v>
+        <v>0.003716489604078051</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.705750709780572e-05</v>
+        <v>1.705750705141232e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.02411371383130933</v>
+        <v>0.0241137137603503</v>
       </c>
       <c r="PM2" t="n">
-        <v>92506.54992843606</v>
+        <v>92506.5487219178</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.194408015648986</v>
+        <v>1.19440800413717</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.194408015648986</v>
+        <v>1.19440800413717</v>
       </c>
       <c r="PP2" t="n">
-        <v>318666.3688725219</v>
+        <v>318666.3682164761</v>
       </c>
       <c r="PQ2" t="n">
-        <v>396116.0751005668</v>
+        <v>396116.0741808494</v>
       </c>
       <c r="PR2" t="n">
-        <v>3806.836359116474</v>
+        <v>3806.836359451404</v>
       </c>
       <c r="PS2" t="n">
-        <v>716.8246501787215</v>
+        <v>716.8246501488904</v>
       </c>
       <c r="PT2" t="n">
-        <v>1005.460590531586</v>
+        <v>1005.460590493873</v>
       </c>
       <c r="PU2" t="n">
-        <v>329.502590850264</v>
+        <v>329.5025902894296</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.999411919795604</v>
+        <v>0.9994119197918551</v>
       </c>
       <c r="PW2" t="n">
-        <v>1.705750709780572e-05</v>
+        <v>1.705750705141232e-05</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.02411371383130933</v>
+        <v>0.0241137137603503</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.4315627375458787</v>
+        <v>0.4315627315583828</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.8109494563703683</v>
+        <v>0.8109494433443636</v>
       </c>
       <c r="QA2" t="n">
-        <v>372027.3368656215</v>
+        <v>372027.3307225464</v>
       </c>
       <c r="QB2" t="n">
-        <v>2.69935879134064</v>
+        <v>2.699358790981029</v>
       </c>
       <c r="QC2" t="n">
-        <v>382453.5011353465</v>
+        <v>382453.5002156352</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.02701446546909256</v>
+        <v>0.02701446658309776</v>
       </c>
       <c r="QE2" t="n">
         <v>0</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.01388396196493269</v>
+        <v>0.01388396193703856</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.07948208846845778</v>
+        <v>0.07948209067921097</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.04125112711910659</v>
+        <v>0.04125112786599939</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.1616316430215896</v>
+        <v>0.1616316470653467</v>
       </c>
       <c r="QJ2" t="n">
-        <v>6.542680286436564e-11</v>
+        <v>6.220773896004061e-12</v>
       </c>
       <c r="QK2" t="n">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.4310741280553</v>
+        <v>79.43107412846054</v>
       </c>
       <c r="D3" t="n">
-        <v>79.4310741280553</v>
+        <v>79.43107412846054</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.4310741280553</v>
+        <v>79.43107412846054</v>
       </c>
       <c r="H3" t="n">
-        <v>79.4310741280553</v>
+        <v>79.43107412846054</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4521,97 +4521,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4545872542021</v>
+        <v>292.4545872541699</v>
       </c>
       <c r="L3" t="n">
-        <v>132934.6669451465</v>
+        <v>132934.6669450949</v>
       </c>
       <c r="M3" t="n">
-        <v>1.58431436423916</v>
+        <v>1.584314364238721</v>
       </c>
       <c r="N3" t="n">
-        <v>334723.0347947778</v>
+        <v>334723.0347947545</v>
       </c>
       <c r="O3" t="n">
-        <v>418629.7833200215</v>
+        <v>418629.7833199889</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687701.7482236767</v>
+        <v>-687701.7482235871</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7175347746988</v>
+        <v>717.7175347746975</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653029401382</v>
+        <v>1006.653029401381</v>
       </c>
       <c r="T3" t="n">
         <v>1.402575498893704</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986783122761</v>
+        <v>0.9994986783122758</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9681628841512</v>
+        <v>342.9681628841323</v>
       </c>
       <c r="W3" t="n">
-        <v>186358.4004042678</v>
+        <v>186358.4004041955</v>
       </c>
       <c r="X3" t="n">
-        <v>5.366004418532768e-06</v>
+        <v>5.36600441853485e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132868.7122734284</v>
+        <v>132868.7122733768</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526226324389418e-06</v>
+        <v>7.526226324392337e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432262902338567</v>
+        <v>0.003432262902338943</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817640677304364e-05</v>
+        <v>1.817640677304207e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583200301824773</v>
+        <v>0.0258320030182453</v>
       </c>
       <c r="AD3" t="n">
-        <v>132934.6669451465</v>
+        <v>132934.6669450949</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.58431436423916</v>
+        <v>1.584314364238721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.58431436423916</v>
+        <v>1.584314364238721</v>
       </c>
       <c r="AG3" t="n">
-        <v>334723.0347947778</v>
+        <v>334723.0347947545</v>
       </c>
       <c r="AH3" t="n">
-        <v>418629.7833200215</v>
+        <v>418629.7833199889</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7175347746988</v>
+        <v>717.7175347746975</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653029401382</v>
+        <v>1006.653029401381</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9681628841512</v>
+        <v>342.9681628841323</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986783122761</v>
+        <v>0.9994986783122758</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817640677304364e-05</v>
+        <v>1.817640677304207e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583200301824773</v>
+        <v>0.0258320030182453</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4800,16 +4800,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2315989725112933</v>
+        <v>0.2315989725124876</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2315989725112933</v>
+        <v>0.2315989725124876</v>
       </c>
       <c r="DB3" t="n">
-        <v>181117.9531899657</v>
+        <v>181117.9531908553</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.70166961770102</v>
+        <v>2.701669617714055</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4858,325 +4858,325 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>262.5129109179749</v>
+        <v>262.5129107609159</v>
       </c>
       <c r="DO3" t="n">
-        <v>108.2771577267299</v>
+        <v>108.2771576821387</v>
       </c>
       <c r="DP3" t="n">
-        <v>239.1423958925926</v>
+        <v>239.1423957403744</v>
       </c>
       <c r="DQ3" t="n">
-        <v>65.64027853154167</v>
+        <v>65.64027852670438</v>
       </c>
       <c r="DR3" t="n">
-        <v>262.5129109179749</v>
+        <v>262.5129107609159</v>
       </c>
       <c r="DS3" t="n">
-        <v>108.2771577267299</v>
+        <v>108.2771576821387</v>
       </c>
       <c r="DT3" t="n">
-        <v>239.1423958925926</v>
+        <v>239.1423957403744</v>
       </c>
       <c r="DU3" t="n">
-        <v>65.64027853154167</v>
+        <v>65.64027852670438</v>
       </c>
       <c r="DV3" t="n">
-        <v>261.2151828802424</v>
+        <v>261.2151829214073</v>
       </c>
       <c r="DW3" t="n">
-        <v>87088.65775948153</v>
+        <v>87088.6578119716</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.162237671794297</v>
+        <v>1.16223767231147</v>
       </c>
       <c r="DY3" t="n">
-        <v>312396.0334432466</v>
+        <v>312396.0334726509</v>
       </c>
       <c r="DZ3" t="n">
-        <v>387327.9168892818</v>
+        <v>387327.9169305058</v>
       </c>
       <c r="EA3" t="n">
-        <v>3791.058035546673</v>
+        <v>3791.058035531595</v>
       </c>
       <c r="EB3" t="n">
-        <v>-602954.0011756553</v>
+        <v>-602954.0012865511</v>
       </c>
       <c r="EC3" t="n">
-        <v>716.5795267632767</v>
+        <v>716.579526764431</v>
       </c>
       <c r="ED3" t="n">
-        <v>1005.244489912598</v>
+        <v>1005.24448991412</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.402837301887753</v>
+        <v>1.402837301887618</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.9993370812316439</v>
+        <v>0.9993370812317931</v>
       </c>
       <c r="EG3" t="n">
-        <v>324.1108393757353</v>
+        <v>324.1108394013069</v>
       </c>
       <c r="EH3" t="n">
-        <v>122090.5525730972</v>
+        <v>122090.5526466904</v>
       </c>
       <c r="EI3" t="n">
-        <v>8.190641936863105e-06</v>
+        <v>8.190641931925987e-06</v>
       </c>
       <c r="EJ3" t="n">
-        <v>87031.15636346706</v>
+        <v>87031.15641593569</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.149013803543771e-05</v>
+        <v>1.149013802851064e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003841562702299367</v>
+        <v>0.003841562701695846</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.661296752989899e-05</v>
+        <v>1.661296753200688e-05</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.02343549247031509</v>
+        <v>0.02343549247353001</v>
       </c>
       <c r="EO3" t="n">
-        <v>87088.65775948153</v>
+        <v>87088.6578119716</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.162237671794297</v>
+        <v>1.16223767231147</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.162237671794297</v>
+        <v>1.16223767231147</v>
       </c>
       <c r="ER3" t="n">
-        <v>312396.0334432466</v>
+        <v>312396.0334726509</v>
       </c>
       <c r="ES3" t="n">
-        <v>387327.9168892818</v>
+        <v>387327.9169305058</v>
       </c>
       <c r="ET3" t="n">
-        <v>3791.058035546673</v>
+        <v>3791.058035531595</v>
       </c>
       <c r="EU3" t="n">
-        <v>716.5795267632767</v>
+        <v>716.579526764431</v>
       </c>
       <c r="EV3" t="n">
-        <v>1005.244489912598</v>
+        <v>1005.24448991412</v>
       </c>
       <c r="EW3" t="n">
-        <v>324.1108393757353</v>
+        <v>324.1108394013069</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.9993370812316439</v>
+        <v>0.9993370812317931</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.661296752989899e-05</v>
+        <v>1.661296753200688e-05</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02343549247031509</v>
+        <v>0.02343549247353001</v>
       </c>
       <c r="FA3" t="n">
-        <v>295.5910489676601</v>
+        <v>295.5910489675684</v>
       </c>
       <c r="FB3" t="n">
-        <v>134139.5092182979</v>
+        <v>134139.509221837</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.581654219439077</v>
+        <v>1.581654219481318</v>
       </c>
       <c r="FD3" t="n">
-        <v>336974.80103818</v>
+        <v>336974.8010381068</v>
       </c>
       <c r="FE3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FF3" t="n">
-        <v>3791.05803554473</v>
+        <v>3791.058035536821</v>
       </c>
       <c r="FG3" t="n">
-        <v>-698818.3903353538</v>
+        <v>-698818.3903327688</v>
       </c>
       <c r="FH3" t="n">
-        <v>717.8531809316596</v>
+        <v>717.8531809316645</v>
       </c>
       <c r="FI3" t="n">
-        <v>1006.758198712644</v>
+        <v>1006.758198712699</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.402456972338036</v>
+        <v>1.402456972338103</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.9995342034561937</v>
+        <v>0.9995342034561805</v>
       </c>
       <c r="FL3" t="n">
-        <v>344.800042052292</v>
+        <v>344.8000420522423</v>
       </c>
       <c r="FM3" t="n">
-        <v>188038.234319428</v>
+        <v>188038.2343243957</v>
       </c>
       <c r="FN3" t="n">
-        <v>5.318067379324891e-06</v>
+        <v>5.318067379184395e-06</v>
       </c>
       <c r="FO3" t="n">
-        <v>134077.7207631186</v>
+        <v>134077.7207666543</v>
       </c>
       <c r="FP3" t="n">
-        <v>7.458360675497661e-06</v>
+        <v>7.458360675300979e-06</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.003395544026639092</v>
+        <v>0.003395544026640486</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.832896064261324e-05</v>
+        <v>1.832896064260929e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.02606672882651282</v>
+        <v>0.02606672882650711</v>
       </c>
       <c r="FT3" t="n">
-        <v>134139.5092182979</v>
+        <v>134139.509221837</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.581654219439077</v>
+        <v>1.581654219481318</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.581654219439077</v>
+        <v>1.581654219481318</v>
       </c>
       <c r="FW3" t="n">
-        <v>336974.80103818</v>
+        <v>336974.8010381068</v>
       </c>
       <c r="FX3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FY3" t="n">
-        <v>3791.05803554473</v>
+        <v>3791.058035536821</v>
       </c>
       <c r="FZ3" t="n">
-        <v>717.8531809316596</v>
+        <v>717.8531809316645</v>
       </c>
       <c r="GA3" t="n">
-        <v>1006.758198712644</v>
+        <v>1006.758198712699</v>
       </c>
       <c r="GB3" t="n">
-        <v>344.800042052292</v>
+        <v>344.8000420522423</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.9995342034561937</v>
+        <v>0.9995342034561805</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.832896064261324e-05</v>
+        <v>1.832896064260929e-05</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02606672882651282</v>
+        <v>0.02606672882650711</v>
       </c>
       <c r="GF3" t="n">
-        <v>295.5910489676601</v>
+        <v>295.5910489675684</v>
       </c>
       <c r="GG3" t="n">
-        <v>134139.5092182979</v>
+        <v>134139.509221837</v>
       </c>
       <c r="GH3" t="n">
-        <v>1.581654219439077</v>
+        <v>1.581654219481318</v>
       </c>
       <c r="GI3" t="n">
-        <v>336974.80103818</v>
+        <v>336974.8010381068</v>
       </c>
       <c r="GJ3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GK3" t="n">
-        <v>3791.05803554473</v>
+        <v>3791.058035536821</v>
       </c>
       <c r="GL3" t="n">
-        <v>-698818.3903353538</v>
+        <v>-698818.3903327688</v>
       </c>
       <c r="GM3" t="n">
-        <v>717.8531809316596</v>
+        <v>717.8531809316645</v>
       </c>
       <c r="GN3" t="n">
-        <v>1006.758198712644</v>
+        <v>1006.758198712699</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402456972338036</v>
+        <v>1.402456972338103</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9995342034561937</v>
+        <v>0.9995342034561805</v>
       </c>
       <c r="GQ3" t="n">
-        <v>344.800042052292</v>
+        <v>344.8000420522423</v>
       </c>
       <c r="GR3" t="n">
-        <v>188038.234319428</v>
+        <v>188038.2343243957</v>
       </c>
       <c r="GS3" t="n">
-        <v>5.318067379324891e-06</v>
+        <v>5.318067379184395e-06</v>
       </c>
       <c r="GT3" t="n">
-        <v>134077.7207631186</v>
+        <v>134077.7207666543</v>
       </c>
       <c r="GU3" t="n">
-        <v>7.458360675497661e-06</v>
+        <v>7.458360675300979e-06</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.003395544026639092</v>
+        <v>0.003395544026640486</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.832896064261324e-05</v>
+        <v>1.832896064260929e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02606672882651282</v>
+        <v>0.02606672882650711</v>
       </c>
       <c r="GY3" t="n">
-        <v>134139.5092182979</v>
+        <v>134139.509221837</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.581654219439077</v>
+        <v>1.581654219481318</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.581654219439077</v>
+        <v>1.581654219481318</v>
       </c>
       <c r="HB3" t="n">
-        <v>336974.80103818</v>
+        <v>336974.8010381068</v>
       </c>
       <c r="HC3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HD3" t="n">
-        <v>3791.05803554473</v>
+        <v>3791.058035536821</v>
       </c>
       <c r="HE3" t="n">
-        <v>717.8531809316596</v>
+        <v>717.8531809316645</v>
       </c>
       <c r="HF3" t="n">
-        <v>1006.758198712644</v>
+        <v>1006.758198712699</v>
       </c>
       <c r="HG3" t="n">
-        <v>344.800042052292</v>
+        <v>344.8000420522423</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9995342034561937</v>
+        <v>0.9995342034561805</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.832896064261324e-05</v>
+        <v>1.832896064260929e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02606672882651282</v>
+        <v>0.02606672882650711</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.8099479530632077</v>
+        <v>0.8099479525147204</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.8099479530632077</v>
+        <v>0.8099479525147204</v>
       </c>
       <c r="HM3" t="n">
-        <v>480436.6602879437</v>
+        <v>480436.6601533291</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.701669617632212</v>
+        <v>2.701669617721788</v>
       </c>
       <c r="HO3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.01762361550506033</v>
+        <v>0.01762361550009564</v>
       </c>
       <c r="HQ3" t="n">
         <v>0</v>
@@ -5185,16 +5185,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.04914564471667305</v>
+        <v>0.04914564471554182</v>
       </c>
       <c r="HT3" t="n">
         <v>0</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.08204932876097651</v>
+        <v>0.08204932875488058</v>
       </c>
       <c r="HV3" t="n">
-        <v>-9.014039514809724e-12</v>
+        <v>7.225803289045984e-12</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -5203,664 +5203,664 @@
         <v>165.3032</v>
       </c>
       <c r="HY3" t="n">
-        <v>262.5129109179749</v>
+        <v>262.5129107609159</v>
       </c>
       <c r="HZ3" t="n">
-        <v>108.2771577267299</v>
+        <v>108.2771576821387</v>
       </c>
       <c r="IA3" t="n">
-        <v>239.1423958925926</v>
+        <v>239.1423957403744</v>
       </c>
       <c r="IB3" t="n">
-        <v>65.64027853154167</v>
+        <v>65.64027852670438</v>
       </c>
       <c r="IC3" t="n">
-        <v>131.0578869639054</v>
+        <v>131.057886841304</v>
       </c>
       <c r="ID3" t="n">
-        <v>108.2771577267299</v>
+        <v>108.2771576821387</v>
       </c>
       <c r="IE3" t="n">
-        <v>73.83919589259261</v>
+        <v>73.83919574037441</v>
       </c>
       <c r="IF3" t="n">
-        <v>34.29188372910139</v>
+        <v>34.29188368510532</v>
       </c>
       <c r="IG3" t="n">
-        <v>261.2151828803363</v>
+        <v>261.2151829212137</v>
       </c>
       <c r="IH3" t="n">
-        <v>87088.65775959531</v>
+        <v>87088.65781399737</v>
       </c>
       <c r="II3" t="n">
-        <v>1.162237671795397</v>
+        <v>1.162237672339387</v>
       </c>
       <c r="IJ3" t="n">
-        <v>312396.0334433134</v>
+        <v>312396.0334725067</v>
       </c>
       <c r="IK3" t="n">
-        <v>387327.9168893756</v>
+        <v>387327.9169303047</v>
       </c>
       <c r="IL3" t="n">
-        <v>3791.058035546658</v>
+        <v>3791.058035524152</v>
       </c>
       <c r="IM3" t="n">
-        <v>-602954.0011759131</v>
+        <v>-602954.0012840737</v>
       </c>
       <c r="IN3" t="n">
-        <v>716.5795267632793</v>
+        <v>716.5795267644334</v>
       </c>
       <c r="IO3" t="n">
-        <v>1005.244489912601</v>
+        <v>1005.244489914163</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.402837301887753</v>
+        <v>1.402837301887673</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.9993370812316443</v>
+        <v>0.9993370812317752</v>
       </c>
       <c r="IR3" t="n">
-        <v>324.1108393757937</v>
+        <v>324.1108394011873</v>
       </c>
       <c r="IS3" t="n">
-        <v>122090.5525732568</v>
+        <v>122090.552649533</v>
       </c>
       <c r="IT3" t="n">
-        <v>8.190641936852404e-06</v>
+        <v>8.190641931735288e-06</v>
       </c>
       <c r="IU3" t="n">
-        <v>87031.15636358077</v>
+        <v>87031.15641795857</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.14901380354227e-05</v>
+        <v>1.149013802824357e-05</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.003841562702297991</v>
+        <v>0.003841562701699032</v>
       </c>
       <c r="IX3" t="n">
-        <v>1.66129675299038e-05</v>
+        <v>1.66129675319973e-05</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.02343549247032243</v>
+        <v>0.0234354924735157</v>
       </c>
       <c r="IZ3" t="n">
-        <v>87088.65775959531</v>
+        <v>87088.65781399737</v>
       </c>
       <c r="JA3" t="n">
-        <v>1.162237671795397</v>
+        <v>1.162237672339387</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.162237671795397</v>
+        <v>1.162237672339387</v>
       </c>
       <c r="JC3" t="n">
-        <v>312396.0334433134</v>
+        <v>312396.0334725067</v>
       </c>
       <c r="JD3" t="n">
-        <v>387327.9168893756</v>
+        <v>387327.9169303047</v>
       </c>
       <c r="JE3" t="n">
-        <v>3791.058035546658</v>
+        <v>3791.058035524152</v>
       </c>
       <c r="JF3" t="n">
-        <v>716.5795267632793</v>
+        <v>716.5795267644334</v>
       </c>
       <c r="JG3" t="n">
-        <v>1005.244489912601</v>
+        <v>1005.244489914163</v>
       </c>
       <c r="JH3" t="n">
-        <v>324.1108393757937</v>
+        <v>324.1108394011873</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.9993370812316443</v>
+        <v>0.9993370812317752</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.66129675299038e-05</v>
+        <v>1.66129675319973e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02343549247032243</v>
+        <v>0.0234354924735157</v>
       </c>
       <c r="JL3" t="n">
-        <v>295.5910489677525</v>
+        <v>295.5910489676689</v>
       </c>
       <c r="JM3" t="n">
-        <v>134139.5092151126</v>
+        <v>134139.5092221238</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.581654219401005</v>
+        <v>1.581654219484161</v>
       </c>
       <c r="JO3" t="n">
-        <v>336974.8010382529</v>
+        <v>336974.8010381783</v>
       </c>
       <c r="JP3" t="n">
-        <v>421784.4310886903</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3791.058035551884</v>
+        <v>3791.058035536546</v>
       </c>
       <c r="JR3" t="n">
-        <v>-698818.3903377183</v>
+        <v>-698818.3903329686</v>
       </c>
       <c r="JS3" t="n">
-        <v>717.8531809316556</v>
+        <v>717.8531809316696</v>
       </c>
       <c r="JT3" t="n">
-        <v>1006.758198712594</v>
+        <v>1006.758198712706</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.402456972337975</v>
+        <v>1.402456972338104</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9995342034562058</v>
+        <v>0.9995342034561807</v>
       </c>
       <c r="JW3" t="n">
-        <v>344.8000420523425</v>
+        <v>344.8000420523011</v>
       </c>
       <c r="JX3" t="n">
-        <v>188038.2343149567</v>
+        <v>188038.2343247978</v>
       </c>
       <c r="JY3" t="n">
-        <v>5.318067379451345e-06</v>
+        <v>5.318067379173021e-06</v>
       </c>
       <c r="JZ3" t="n">
-        <v>134077.7207599363</v>
+        <v>134077.720766941</v>
       </c>
       <c r="KA3" t="n">
-        <v>7.458360675674681e-06</v>
+        <v>7.458360675285032e-06</v>
       </c>
       <c r="KB3" t="n">
-        <v>0.003395544026637722</v>
+        <v>0.003395544026639346</v>
       </c>
       <c r="KC3" t="n">
-        <v>1.832896064261725e-05</v>
+        <v>1.832896064261421e-05</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.02606672882651869</v>
+        <v>0.0260667288265147</v>
       </c>
       <c r="KE3" t="n">
-        <v>134139.5092151126</v>
+        <v>134139.5092221238</v>
       </c>
       <c r="KF3" t="n">
-        <v>1.581654219401005</v>
+        <v>1.581654219484161</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.581654219401005</v>
+        <v>1.581654219484161</v>
       </c>
       <c r="KH3" t="n">
-        <v>336974.8010382529</v>
+        <v>336974.8010381783</v>
       </c>
       <c r="KI3" t="n">
-        <v>421784.4310886903</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KJ3" t="n">
-        <v>3791.058035551884</v>
+        <v>3791.058035536546</v>
       </c>
       <c r="KK3" t="n">
-        <v>717.8531809316556</v>
+        <v>717.8531809316696</v>
       </c>
       <c r="KL3" t="n">
-        <v>1006.758198712594</v>
+        <v>1006.758198712706</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8000420523425</v>
+        <v>344.8000420523011</v>
       </c>
       <c r="KN3" t="n">
-        <v>0.9995342034562058</v>
+        <v>0.9995342034561807</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.832896064261725e-05</v>
+        <v>1.832896064261421e-05</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.02606672882651869</v>
+        <v>0.0260667288265147</v>
       </c>
       <c r="KQ3" t="n">
-        <v>269.7870969433507</v>
+        <v>269.7870969682763</v>
       </c>
       <c r="KR3" t="n">
-        <v>97484.73980452582</v>
+        <v>97484.73984117934</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.259590686935245</v>
+        <v>1.259590687292349</v>
       </c>
       <c r="KT3" t="n">
-        <v>318522.0190802969</v>
+        <v>318522.0190981007</v>
       </c>
       <c r="KU3" t="n">
-        <v>395916.0017570976</v>
+        <v>395916.0017820591</v>
       </c>
       <c r="KV3" t="n">
-        <v>3791.058035546658</v>
+        <v>3791.058035531321</v>
       </c>
       <c r="KW3" t="n">
-        <v>-626862.5399967971</v>
+        <v>-626862.5400621926</v>
       </c>
       <c r="KX3" t="n">
-        <v>716.8352535758604</v>
+        <v>716.8352535766765</v>
       </c>
       <c r="KY3" t="n">
-        <v>1005.559450767985</v>
+        <v>1005.559450769063</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.402776224734837</v>
+        <v>1.402776224734744</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9993780141826107</v>
+        <v>0.9993780141827046</v>
       </c>
       <c r="LB3" t="n">
-        <v>329.3922556672556</v>
+        <v>329.3922556824922</v>
       </c>
       <c r="LC3" t="n">
-        <v>136664.655034035</v>
+        <v>136664.6550854239</v>
       </c>
       <c r="LD3" t="n">
-        <v>7.317180874242573e-06</v>
+        <v>7.317180871491152e-06</v>
       </c>
       <c r="LE3" t="n">
-        <v>97424.41639960669</v>
+        <v>97424.41643624689</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.026436736247195e-05</v>
+        <v>1.026436735861164e-05</v>
       </c>
       <c r="LG3" t="n">
-        <v>0.003719733429461368</v>
+        <v>0.003719733429119037</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.704894490284151e-05</v>
+        <v>1.704894490410198e-05</v>
       </c>
       <c r="LI3" t="n">
-        <v>0.02410124998084411</v>
+        <v>0.02410124998277224</v>
       </c>
       <c r="LJ3" t="n">
-        <v>97484.73980452582</v>
+        <v>97484.73984117934</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.259590686935245</v>
+        <v>1.259590687292349</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.259590686935245</v>
+        <v>1.259590687292349</v>
       </c>
       <c r="LM3" t="n">
-        <v>318522.0190802969</v>
+        <v>318522.0190981007</v>
       </c>
       <c r="LN3" t="n">
-        <v>395916.0017570976</v>
+        <v>395916.0017820591</v>
       </c>
       <c r="LO3" t="n">
-        <v>3791.058035546658</v>
+        <v>3791.058035531321</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8352535758604</v>
+        <v>716.8352535766765</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.559450767985</v>
+        <v>1005.559450769063</v>
       </c>
       <c r="LR3" t="n">
-        <v>329.3922556672556</v>
+        <v>329.3922556824922</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993780141826107</v>
+        <v>0.9993780141827046</v>
       </c>
       <c r="LT3" t="n">
-        <v>1.704894490284151e-05</v>
+        <v>1.704894490410198e-05</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.02410124998084411</v>
+        <v>0.02410124998277224</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.8099479530630619</v>
+        <v>0.8099479525150192</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.4043613203936973</v>
+        <v>0.404361319983746</v>
       </c>
       <c r="LX3" t="n">
-        <v>238938.044419756</v>
+        <v>238938.0442779613</v>
       </c>
       <c r="LY3" t="n">
-        <v>2.701669617634769</v>
+        <v>2.701669617786683</v>
       </c>
       <c r="LZ3" t="n">
-        <v>382253.4277918774</v>
+        <v>382253.4278169391</v>
       </c>
       <c r="MA3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MB3" t="n">
-        <v>140.9419859199692</v>
+        <v>140.9419859731125</v>
       </c>
       <c r="MC3" t="n">
-        <v>126.2302382019386</v>
+        <v>126.2302382087897</v>
       </c>
       <c r="MD3" t="n">
-        <v>-62.69426096977813</v>
+        <v>-62.69426107545456</v>
       </c>
       <c r="ME3" t="n">
-        <v>-26.41202579305824</v>
+        <v>-26.41202583029477</v>
       </c>
       <c r="MF3" t="n">
-        <v>260.6087397712971</v>
+        <v>260.6087398670682</v>
       </c>
       <c r="MG3" t="n">
-        <v>126.2302382019386</v>
+        <v>126.2302382087897</v>
       </c>
       <c r="MH3" t="n">
-        <v>-227.9974609697781</v>
+        <v>-227.9974610754546</v>
       </c>
       <c r="MI3" t="n">
-        <v>-61.02900056518168</v>
+        <v>-61.02900057511738</v>
       </c>
       <c r="MJ3" t="n">
-        <v>235.8696638038597</v>
+        <v>235.8696638041643</v>
       </c>
       <c r="MK3" t="n">
-        <v>57500.00000150197</v>
+        <v>57500.00000223319</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.849861691308386</v>
+        <v>0.8498616913181003</v>
       </c>
       <c r="MM3" t="n">
-        <v>294299.476251543</v>
+        <v>294299.4762517592</v>
       </c>
       <c r="MN3" t="n">
-        <v>361957.5441343053</v>
+        <v>361957.5441346085</v>
       </c>
       <c r="MO3" t="n">
-        <v>3807.976748316248</v>
+        <v>3807.976748313888</v>
       </c>
       <c r="MP3" t="n">
-        <v>-536228.6512639628</v>
+        <v>-536228.6512642627</v>
       </c>
       <c r="MQ3" t="n">
-        <v>716.0083017015384</v>
+        <v>716.0083017015454</v>
       </c>
       <c r="MR3" t="n">
-        <v>1004.418583802468</v>
+        <v>1004.418583802488</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.402802986244076</v>
+        <v>1.402802986244091</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.9992893832279618</v>
+        <v>0.9992893832279568</v>
       </c>
       <c r="MU3" t="n">
-        <v>307.9669022647932</v>
+        <v>307.9669022649921</v>
       </c>
       <c r="MV3" t="n">
-        <v>80603.95326097994</v>
+        <v>80603.95326200542</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.240633938588836e-05</v>
+        <v>1.240633938573052e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>57459.21134427605</v>
+        <v>57459.21134500646</v>
       </c>
       <c r="MY3" t="n">
-        <v>1.740364993888169e-05</v>
+        <v>1.740364993866046e-05</v>
       </c>
       <c r="MZ3" t="n">
-        <v>0.004252688980944152</v>
+        <v>0.004252688980938778</v>
       </c>
       <c r="NA3" t="n">
-        <v>1.528932515250009e-05</v>
+        <v>1.528932515251638e-05</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.02142505496719298</v>
+        <v>0.0214250549672177</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000150197</v>
+        <v>57500.00000223319</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.849861691308386</v>
+        <v>0.8498616913181003</v>
       </c>
       <c r="NE3" t="n">
-        <v>0.849861691308386</v>
+        <v>0.8498616913181003</v>
       </c>
       <c r="NF3" t="n">
-        <v>294299.476251543</v>
+        <v>294299.4762517592</v>
       </c>
       <c r="NG3" t="n">
-        <v>361957.5441343053</v>
+        <v>361957.5441346085</v>
       </c>
       <c r="NH3" t="n">
-        <v>3807.976748316248</v>
+        <v>3807.976748313888</v>
       </c>
       <c r="NI3" t="n">
-        <v>716.0083017015384</v>
+        <v>716.0083017015454</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.418583802468</v>
+        <v>1004.418583802488</v>
       </c>
       <c r="NK3" t="n">
-        <v>307.9669022647932</v>
+        <v>307.9669022649921</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992893832279618</v>
+        <v>0.9992893832279568</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.528932515250009e-05</v>
+        <v>1.528932515251638e-05</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.02142505496719298</v>
+        <v>0.0214250549672177</v>
       </c>
       <c r="NO3" t="n">
-        <v>245.7879687170588</v>
+        <v>245.7879687245497</v>
       </c>
       <c r="NP3" t="n">
-        <v>66392.36246616</v>
+        <v>66392.3624760301</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9416676297725215</v>
+        <v>0.941667629883818</v>
       </c>
       <c r="NR3" t="n">
-        <v>301384.774261461</v>
+        <v>301384.7742668053</v>
       </c>
       <c r="NS3" t="n">
-        <v>371889.8658320382</v>
+        <v>371889.865839531</v>
       </c>
       <c r="NT3" t="n">
-        <v>3807.976748334706</v>
+        <v>3807.976748322546</v>
       </c>
       <c r="NU3" t="n">
-        <v>-564065.0040629396</v>
+        <v>-564065.0040809835</v>
       </c>
       <c r="NV3" t="n">
-        <v>716.1922605913956</v>
+        <v>716.1922605915614</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.665486151339</v>
+        <v>1004.665486151612</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402787409796549</v>
+        <v>1.402787409796606</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9993178167726708</v>
+        <v>0.999317816772666</v>
       </c>
       <c r="NZ3" t="n">
-        <v>314.3824840402593</v>
+        <v>314.3824840450551</v>
       </c>
       <c r="OA3" t="n">
-        <v>93070.98792869378</v>
+        <v>93070.98794253344</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.074448678643176e-05</v>
+        <v>1.074448678483405e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>66347.17939348501</v>
+        <v>66347.17940334808</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.507223078873185e-05</v>
+        <v>1.507223078649123e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004081408209082337</v>
+        <v>0.00408140820895873</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.581324606093218e-05</v>
+        <v>1.581324606132523e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02221851972452991</v>
+        <v>0.0222185197251266</v>
       </c>
       <c r="OH3" t="n">
-        <v>66392.36246616</v>
+        <v>66392.3624760301</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9416676297725215</v>
+        <v>0.941667629883818</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.9416676297725215</v>
+        <v>0.941667629883818</v>
       </c>
       <c r="OK3" t="n">
-        <v>301384.774261461</v>
+        <v>301384.7742668053</v>
       </c>
       <c r="OL3" t="n">
-        <v>371889.8658320382</v>
+        <v>371889.865839531</v>
       </c>
       <c r="OM3" t="n">
-        <v>3807.976748334706</v>
+        <v>3807.976748322546</v>
       </c>
       <c r="ON3" t="n">
-        <v>716.1922605913956</v>
+        <v>716.1922605915614</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.665486151339</v>
+        <v>1004.665486151612</v>
       </c>
       <c r="OP3" t="n">
-        <v>314.3824840402593</v>
+        <v>314.3824840450551</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9993178167726708</v>
+        <v>0.999317816772666</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.581324606093218e-05</v>
+        <v>1.581324606132523e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02221851972452991</v>
+        <v>0.0222185197251266</v>
       </c>
       <c r="OT3" t="n">
-        <v>269.771507979208</v>
+        <v>269.7715080042279</v>
       </c>
       <c r="OU3" t="n">
-        <v>91901.75157250656</v>
+        <v>91901.75160616222</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.187480173229703</v>
+        <v>1.187480173554329</v>
       </c>
       <c r="OW3" t="n">
-        <v>318523.7609059914</v>
+        <v>318523.7609238679</v>
       </c>
       <c r="OX3" t="n">
-        <v>395916.0017570977</v>
+        <v>395916.0017821593</v>
       </c>
       <c r="OY3" t="n">
-        <v>3807.976748326048</v>
+        <v>3807.976748313887</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-631367.6279885815</v>
+        <v>-631367.6280555143</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.8170544720841</v>
+        <v>716.8170544728974</v>
       </c>
       <c r="PB3" t="n">
-        <v>1005.445398279592</v>
+        <v>1005.445398280636</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.402652729879696</v>
+        <v>1.402652729879561</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9994132707881436</v>
+        <v>0.9994132707882387</v>
       </c>
       <c r="PE3" t="n">
-        <v>329.3798012623409</v>
+        <v>329.3798012776307</v>
       </c>
       <c r="PF3" t="n">
-        <v>128830.9749798512</v>
+        <v>128830.9750270308</v>
       </c>
       <c r="PG3" t="n">
-        <v>7.762108453781378e-06</v>
+        <v>7.762108450938789e-06</v>
       </c>
       <c r="PH3" t="n">
-        <v>91848.09057542047</v>
+        <v>91848.09060906539</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.088754261231872e-05</v>
+        <v>1.08875426083305e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.003719200284067478</v>
+        <v>0.003719200283723669</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.704731314522507e-05</v>
+        <v>1.704731314648989e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.0240980813357178</v>
+        <v>0.02409808133765233</v>
       </c>
       <c r="PM3" t="n">
-        <v>91901.75157250656</v>
+        <v>91901.75160616222</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.187480173229703</v>
+        <v>1.187480173554329</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.187480173229703</v>
+        <v>1.187480173554329</v>
       </c>
       <c r="PP3" t="n">
-        <v>318523.7609059914</v>
+        <v>318523.7609238679</v>
       </c>
       <c r="PQ3" t="n">
-        <v>395916.0017570977</v>
+        <v>395916.0017821593</v>
       </c>
       <c r="PR3" t="n">
-        <v>3807.976748326048</v>
+        <v>3807.976748313887</v>
       </c>
       <c r="PS3" t="n">
-        <v>716.8170544720841</v>
+        <v>716.8170544728974</v>
       </c>
       <c r="PT3" t="n">
-        <v>1005.445398279592</v>
+        <v>1005.445398280636</v>
       </c>
       <c r="PU3" t="n">
-        <v>329.3798012623409</v>
+        <v>329.3798012776307</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.9994132707881436</v>
+        <v>0.9994132707882387</v>
       </c>
       <c r="PW3" t="n">
-        <v>1.704731314522507e-05</v>
+        <v>1.704731314648989e-05</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.0240980813357178</v>
+        <v>0.02409808133765233</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.4576530298661308</v>
+        <v>0.457653030038397</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.846223207282265</v>
+        <v>0.8462232075926968</v>
       </c>
       <c r="QA3" t="n">
-        <v>377505.5353089689</v>
+        <v>377505.5354516112</v>
       </c>
       <c r="QB3" t="n">
-        <v>2.701669617770385</v>
+        <v>2.701669617947899</v>
       </c>
       <c r="QC3" t="n">
-        <v>382253.4277918774</v>
+        <v>382253.4278169391</v>
       </c>
       <c r="QD3" t="n">
-        <v>0.02714521515807734</v>
+        <v>0.02714521512729258</v>
       </c>
       <c r="QE3" t="n">
         <v>0</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.01389203144459183</v>
+        <v>0.01389203144512741</v>
       </c>
       <c r="QG3" t="n">
-        <v>0.07971792776279987</v>
+        <v>0.0797179277083543</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.04153273190090934</v>
+        <v>0.04153273187854656</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.1622879062663784</v>
+        <v>0.1622879061593208</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-6.787950757036754e-11</v>
+        <v>-2.899777640230639e-11</v>
       </c>
       <c r="QK3" t="n">
         <v>0</v>
@@ -8257,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760661569108142</v>
+        <v>0.01760661587074862</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8266,25 +8266,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04914148720070381</v>
+        <v>0.04914148724186166</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202817143102836</v>
+        <v>0.08202817165185342</v>
       </c>
       <c r="H2" t="n">
-        <v>1.942584981762252e-12</v>
+        <v>1.564498530726155e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248351302775</v>
+        <v>80.71248350719505</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248351302775</v>
+        <v>80.71248350719505</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8293,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248351302775</v>
+        <v>80.71248350719505</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248351302775</v>
+        <v>80.71248350719505</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8305,295 +8305,295 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750141695</v>
+        <v>292.3522750144388</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796835278</v>
+        <v>132772.1796839549</v>
       </c>
       <c r="T2" t="n">
-        <v>1.582932746995187</v>
+        <v>1.582932746998819</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439820999</v>
+        <v>334649.8439822922</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785912697</v>
+        <v>418527.1785915396</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.91734772346</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.314206252</v>
+        <v>-687417.3142070009</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007517257</v>
+        <v>717.7129007517379</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.647652845926</v>
+        <v>1006.64765284594</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602413</v>
+        <v>1.402577063602409</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405076</v>
+        <v>0.9994979633405094</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.9081100792591</v>
+        <v>342.9081100794172</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6855997806</v>
+        <v>186130.6856003792</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261095435e-06</v>
+        <v>5.372569261078156e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.209469673</v>
+        <v>132706.2094701001</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418227818e-06</v>
+        <v>7.535442418203563e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124712077</v>
+        <v>0.003433462124708921</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103496466e-05</v>
+        <v>1.817140103497783e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250870601</v>
+        <v>0.0258242925087263</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796835278</v>
+        <v>132772.1796839549</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.582932746995187</v>
+        <v>1.582932746998819</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.582932746995187</v>
+        <v>1.582932746998819</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439820999</v>
+        <v>334649.8439822922</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785912697</v>
+        <v>418527.1785915396</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.91734772346</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007517257</v>
+        <v>717.7129007517379</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.647652845926</v>
+        <v>1006.64765284594</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9081100792591</v>
+        <v>342.9081100794172</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405076</v>
+        <v>0.9994979633405094</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103496466e-05</v>
+        <v>1.817140103497783e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250870601</v>
+        <v>0.0258242925087263</v>
       </c>
       <c r="AW2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="AX2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="AZ2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BA2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BB2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BC2" t="n">
-        <v>-696445.9368990478</v>
+        <v>-696445.9368984912</v>
       </c>
       <c r="BD2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BE2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BH2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BI2" t="n">
-        <v>193456.8974372425</v>
+        <v>193456.8974367851</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.169110087296838e-06</v>
+        <v>5.169110087309059e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>137934.6617461907</v>
+        <v>137934.6617458643</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.249809346979579e-06</v>
+        <v>7.249809346996735e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="BP2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="BS2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BT2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BU2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BV2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BW2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BX2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CB2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="CC2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="CE2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CF2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CG2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CH2" t="n">
-        <v>-696445.9368990478</v>
+        <v>-696445.9368984912</v>
       </c>
       <c r="CI2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CM2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CN2" t="n">
-        <v>193456.8974372425</v>
+        <v>193456.8974367851</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.169110087296838e-06</v>
+        <v>5.169110087309059e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>137934.6617461907</v>
+        <v>137934.6617458643</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.249809346979579e-06</v>
+        <v>7.249809346996735e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CU2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="CX2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CY2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CZ2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DA2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="DB2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="DC2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2353764205062751</v>
+        <v>0.2353764204891571</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.2353764205062751</v>
+        <v>0.2353764204891571</v>
       </c>
       <c r="DI2" t="n">
-        <v>183929.9703547407</v>
+        <v>183929.9703417376</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.742859854222594</v>
+        <v>2.742859854030673</v>
       </c>
       <c r="DK2" t="n">
         <v>421784.4310885898</v>
@@ -8602,310 +8602,310 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>306.8418977538941</v>
+        <v>306.8418861841554</v>
       </c>
       <c r="DN2" t="n">
-        <v>125.3773441305719</v>
+        <v>125.3773394031109</v>
       </c>
       <c r="DO2" t="n">
-        <v>280.0579793470905</v>
+        <v>280.0579687872626</v>
       </c>
       <c r="DP2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ2" t="n">
-        <v>306.8418977538941</v>
+        <v>306.8418861841554</v>
       </c>
       <c r="DR2" t="n">
-        <v>125.3773441305719</v>
+        <v>125.3773394031109</v>
       </c>
       <c r="DS2" t="n">
-        <v>280.0579793470905</v>
+        <v>280.0579687872626</v>
       </c>
       <c r="DT2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU2" t="n">
-        <v>248.6139859349479</v>
+        <v>248.6139894802033</v>
       </c>
       <c r="DV2" t="n">
-        <v>72670.28569121684</v>
+        <v>72670.28946774009</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.019019541618002</v>
+        <v>1.019019580031772</v>
       </c>
       <c r="DX2" t="n">
-        <v>303394.5285004083</v>
+        <v>303394.5310326589</v>
       </c>
       <c r="DY2" t="n">
-        <v>374708.4559799842</v>
+        <v>374708.4595299645</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3793.46186990204</v>
+        <v>3793.461869274337</v>
       </c>
       <c r="EA2" t="n">
-        <v>-568399.2199886027</v>
+        <v>-568399.229731358</v>
       </c>
       <c r="EB2" t="n">
-        <v>716.2663342609613</v>
+        <v>716.266334338843</v>
       </c>
       <c r="EC2" t="n">
-        <v>1004.832375504296</v>
+        <v>1004.832375609374</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.402875337622946</v>
+        <v>1.402875337617109</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.9992923632691331</v>
+        <v>0.999292363280166</v>
       </c>
       <c r="EF2" t="n">
-        <v>316.186573776433</v>
+        <v>316.1865760337177</v>
       </c>
       <c r="EG2" t="n">
-        <v>101875.4081285029</v>
+        <v>101875.4134234748</v>
       </c>
       <c r="EH2" t="n">
-        <v>9.81591159604119e-06</v>
+        <v>9.815911085859441e-06</v>
       </c>
       <c r="EI2" t="n">
-        <v>72619.00284106653</v>
+        <v>72619.00661573961</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.377050029437327e-05</v>
+        <v>1.377049957859459e-05</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.004035765730170977</v>
+        <v>0.004035765672765889</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.596159544633212e-05</v>
+        <v>1.596159563136967e-05</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02244419773235197</v>
+        <v>0.02244419801335963</v>
       </c>
       <c r="EN2" t="n">
-        <v>72670.28569121684</v>
+        <v>72670.28946774009</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.019019541618002</v>
+        <v>1.019019580031772</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.019019541618002</v>
+        <v>1.019019580031772</v>
       </c>
       <c r="EQ2" t="n">
-        <v>303394.5285004083</v>
+        <v>303394.5310326589</v>
       </c>
       <c r="ER2" t="n">
-        <v>374708.4559799842</v>
+        <v>374708.4595299645</v>
       </c>
       <c r="ES2" t="n">
-        <v>3793.46186990204</v>
+        <v>3793.461869274337</v>
       </c>
       <c r="ET2" t="n">
-        <v>716.2663342609613</v>
+        <v>716.266334338843</v>
       </c>
       <c r="EU2" t="n">
-        <v>1004.832375504296</v>
+        <v>1004.832375609374</v>
       </c>
       <c r="EV2" t="n">
-        <v>316.186573776433</v>
+        <v>316.1865760337177</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.9992923632691331</v>
+        <v>0.999292363280166</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.596159544633212e-05</v>
+        <v>1.596159563136967e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.02244419773235197</v>
+        <v>0.02244419801335963</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295.5884537388763</v>
+        <v>295.5884537395513</v>
       </c>
       <c r="FA2" t="n">
-        <v>133020.358689537</v>
+        <v>133020.3589805529</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.56846597835066</v>
+        <v>1.568465981780052</v>
       </c>
       <c r="FC2" t="n">
-        <v>336975.2222658019</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="FD2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="FE2" t="n">
-        <v>3793.461869909473</v>
+        <v>3793.461869281769</v>
       </c>
       <c r="FF2" t="n">
-        <v>-699519.0973552371</v>
+        <v>-699519.0971722556</v>
       </c>
       <c r="FG2" t="n">
-        <v>717.8502656712651</v>
+        <v>717.8502656720228</v>
       </c>
       <c r="FH2" t="n">
-        <v>1006.73982265982</v>
+        <v>1006.739822664598</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.402437069126683</v>
+        <v>1.402437069131859</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.9995380147668022</v>
+        <v>0.9995380147658109</v>
       </c>
       <c r="FK2" t="n">
-        <v>344.7973817651176</v>
+        <v>344.7973817658094</v>
       </c>
       <c r="FL2" t="n">
-        <v>186467.4455976989</v>
+        <v>186467.4460061513</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.362866407026816e-06</v>
+        <v>5.362866395279588e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>132959.5813620463</v>
+        <v>132959.5816528003</v>
       </c>
       <c r="FO2" t="n">
-        <v>7.521082645988632e-06</v>
+        <v>7.521082629541642e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.003395470178510966</v>
+        <v>0.00339547017853017</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.83286733523428e-05</v>
+        <v>1.832867335241751e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02606617654982905</v>
+        <v>0.02606617654997266</v>
       </c>
       <c r="FS2" t="n">
-        <v>133020.358689537</v>
+        <v>133020.3589805529</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.56846597835066</v>
+        <v>1.568465981780052</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.56846597835066</v>
+        <v>1.568465981780052</v>
       </c>
       <c r="FV2" t="n">
-        <v>336975.2222658019</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="FW2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="FX2" t="n">
-        <v>3793.461869909473</v>
+        <v>3793.461869281769</v>
       </c>
       <c r="FY2" t="n">
-        <v>717.8502656712651</v>
+        <v>717.8502656720228</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1006.73982265982</v>
+        <v>1006.739822664598</v>
       </c>
       <c r="GA2" t="n">
-        <v>344.7973817651176</v>
+        <v>344.7973817658094</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9995380147668022</v>
+        <v>0.9995380147658109</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.83286733523428e-05</v>
+        <v>1.832867335241751e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02606617654982905</v>
+        <v>0.02606617654997266</v>
       </c>
       <c r="GE2" t="n">
-        <v>295.5884537388763</v>
+        <v>295.5884537395513</v>
       </c>
       <c r="GF2" t="n">
-        <v>133020.358689537</v>
+        <v>133020.3589805529</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.56846597835066</v>
+        <v>1.568465981780052</v>
       </c>
       <c r="GH2" t="n">
-        <v>336975.2222658019</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="GI2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="GJ2" t="n">
-        <v>3793.461869909473</v>
+        <v>3793.461869281769</v>
       </c>
       <c r="GK2" t="n">
-        <v>-699519.0973552371</v>
+        <v>-699519.0971722556</v>
       </c>
       <c r="GL2" t="n">
-        <v>717.8502656712651</v>
+        <v>717.8502656720228</v>
       </c>
       <c r="GM2" t="n">
-        <v>1006.73982265982</v>
+        <v>1006.739822664598</v>
       </c>
       <c r="GN2" t="n">
-        <v>1.402437069126683</v>
+        <v>1.402437069131859</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.9995380147668022</v>
+        <v>0.9995380147658109</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.7973817651176</v>
+        <v>344.7973817658094</v>
       </c>
       <c r="GQ2" t="n">
-        <v>186467.4455976989</v>
+        <v>186467.4460061513</v>
       </c>
       <c r="GR2" t="n">
-        <v>5.362866407026816e-06</v>
+        <v>5.362866395279588e-06</v>
       </c>
       <c r="GS2" t="n">
-        <v>132959.5813620463</v>
+        <v>132959.5816528003</v>
       </c>
       <c r="GT2" t="n">
-        <v>7.521082645988632e-06</v>
+        <v>7.521082629541642e-06</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.003395470178510966</v>
+        <v>0.00339547017853017</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.83286733523428e-05</v>
+        <v>1.832867335241751e-05</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.02606617654982905</v>
+        <v>0.02606617654997266</v>
       </c>
       <c r="GX2" t="n">
-        <v>133020.358689537</v>
+        <v>133020.3589805529</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.56846597835066</v>
+        <v>1.568465981780052</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.56846597835066</v>
+        <v>1.568465981780052</v>
       </c>
       <c r="HA2" t="n">
-        <v>336975.2222658019</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="HB2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="HC2" t="n">
-        <v>3793.461869909473</v>
+        <v>3793.461869281769</v>
       </c>
       <c r="HD2" t="n">
-        <v>717.8502656712651</v>
+        <v>717.8502656720228</v>
       </c>
       <c r="HE2" t="n">
-        <v>1006.73982265982</v>
+        <v>1006.739822664598</v>
       </c>
       <c r="HF2" t="n">
-        <v>344.7973817651176</v>
+        <v>344.7973817658094</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.9995380147668022</v>
+        <v>0.9995380147658109</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.83286733523428e-05</v>
+        <v>1.832867335241751e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606617654982905</v>
+        <v>0.02606617654997266</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.01795407858969771</v>
+        <v>0.01795407855405201</v>
       </c>
       <c r="HK2" t="n">
         <v>0</v>
@@ -8914,28 +8914,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.04927004797608343</v>
+        <v>0.04927004794569003</v>
       </c>
       <c r="HN2" t="n">
         <v>0</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.08250419510502427</v>
+        <v>0.08250419503898518</v>
       </c>
       <c r="HP2" t="n">
-        <v>8.402782888800031e-06</v>
+        <v>8.402786890363001e-06</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9704456899895243</v>
+        <v>0.9704456464699319</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9704456899895243</v>
+        <v>0.9704456464699319</v>
       </c>
       <c r="HS2" t="n">
-        <v>512458.3961459205</v>
+        <v>512458.3902005096</v>
       </c>
       <c r="HT2" t="n">
-        <v>2.742849774815449</v>
+        <v>2.742849774790569</v>
       </c>
       <c r="HU2" t="n">
         <v>421784.4310885898</v>
@@ -8944,676 +8944,676 @@
         <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>2102.618743675994</v>
+        <v>2102.618816489121</v>
       </c>
       <c r="HX2" t="n">
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.006917638086660098</v>
+        <v>0.006917638386714429</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.01930768692059914</v>
+        <v>0.01930768757722011</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.006003537871698308</v>
+        <v>0.006003538070840037</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.02701446546909256</v>
+        <v>0.02701446658309776</v>
       </c>
       <c r="IE2" t="n">
         <v>0</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.01388396196493269</v>
+        <v>0.01388396193703856</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.07948208846845778</v>
+        <v>0.07948209067921097</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.04125112711910659</v>
+        <v>0.04125112786599939</v>
       </c>
       <c r="II2" t="n">
-        <v>0.1616316430215896</v>
+        <v>0.1616316470653467</v>
       </c>
       <c r="IJ2" t="n">
-        <v>6.542680286436564e-11</v>
+        <v>6.220773896004061e-12</v>
       </c>
       <c r="IK2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL2" t="n">
-        <v>263.9934637094445</v>
+        <v>263.9934655546166</v>
       </c>
       <c r="IM2" t="n">
-        <v>108.9555783736819</v>
+        <v>108.9555784007568</v>
       </c>
       <c r="IN2" t="n">
-        <v>240.4604558395544</v>
+        <v>240.4604578530389</v>
       </c>
       <c r="IO2" t="n">
-        <v>65.62413742779584</v>
+        <v>65.62413760280089</v>
       </c>
       <c r="IP2" t="n">
-        <v>132.362876835145</v>
+        <v>132.362878000713</v>
       </c>
       <c r="IQ2" t="n">
-        <v>108.9555783736819</v>
+        <v>108.9555784007568</v>
       </c>
       <c r="IR2" t="n">
-        <v>75.15725583955438</v>
+        <v>75.15725785303886</v>
       </c>
       <c r="IS2" t="n">
-        <v>34.59780404397572</v>
+        <v>34.59780475476499</v>
       </c>
       <c r="IT2" t="n">
-        <v>260.8261694158613</v>
+        <v>260.8261689293</v>
       </c>
       <c r="IU2" t="n">
-        <v>86657.47210291823</v>
+        <v>86657.47144018231</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.158210351504041</v>
+        <v>1.158210344808552</v>
       </c>
       <c r="IW2" t="n">
-        <v>312118.0067585003</v>
+        <v>312118.0064110601</v>
       </c>
       <c r="IX2" t="n">
-        <v>386938.1566478409</v>
+        <v>386938.1561607211</v>
       </c>
       <c r="IY2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978378</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-601850.8822718501</v>
+        <v>-601850.8809995083</v>
       </c>
       <c r="JA2" t="n">
-        <v>716.5688793807437</v>
+        <v>716.5688793670388</v>
       </c>
       <c r="JB2" t="n">
-        <v>1005.231555317483</v>
+        <v>1005.231555298598</v>
       </c>
       <c r="JC2" t="n">
-        <v>1.40284009568794</v>
+        <v>1.402840095688416</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.9993351898592712</v>
+        <v>0.999335189857862</v>
       </c>
       <c r="JE2" t="n">
-        <v>323.8691152506529</v>
+        <v>323.8691149481627</v>
       </c>
       <c r="JF2" t="n">
-        <v>121486.0780382155</v>
+        <v>121486.0771089843</v>
       </c>
       <c r="JG2" t="n">
-        <v>8.23139586155241e-06</v>
+        <v>8.231395924513284e-06</v>
       </c>
       <c r="JH2" t="n">
-        <v>86600.0896407511</v>
+        <v>86600.08897832896</v>
       </c>
       <c r="JI2" t="n">
-        <v>1.15473321580655e-05</v>
+        <v>1.154733224639345e-05</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.003847284344852617</v>
+        <v>0.003847284352000551</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.659305186337096e-05</v>
+        <v>1.659305183843477e-05</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.02340512762226589</v>
+        <v>0.02340512758423255</v>
       </c>
       <c r="JM2" t="n">
-        <v>86657.47210291823</v>
+        <v>86657.47144018231</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.158210351504041</v>
+        <v>1.158210344808552</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.158210351504041</v>
+        <v>1.158210344808552</v>
       </c>
       <c r="JP2" t="n">
-        <v>312118.0067585003</v>
+        <v>312118.0064110601</v>
       </c>
       <c r="JQ2" t="n">
-        <v>386938.1566478409</v>
+        <v>386938.1561607211</v>
       </c>
       <c r="JR2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978378</v>
       </c>
       <c r="JS2" t="n">
-        <v>716.5688793807437</v>
+        <v>716.5688793670388</v>
       </c>
       <c r="JT2" t="n">
-        <v>1005.231555317483</v>
+        <v>1005.231555298598</v>
       </c>
       <c r="JU2" t="n">
-        <v>323.8691152506529</v>
+        <v>323.8691149481627</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9993351898592712</v>
+        <v>0.999335189857862</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.659305186337096e-05</v>
+        <v>1.659305183843477e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02340512762226589</v>
+        <v>0.02340512758423255</v>
       </c>
       <c r="JY2" t="n">
-        <v>295.5911242361797</v>
+        <v>295.5911242359261</v>
       </c>
       <c r="JZ2" t="n">
-        <v>134171.9685289177</v>
+        <v>134171.9683765247</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.582036722951679</v>
+        <v>1.582036721155331</v>
       </c>
       <c r="KB2" t="n">
-        <v>336974.7888202441</v>
+        <v>336974.7888203733</v>
       </c>
       <c r="KC2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KD2" t="n">
-        <v>3790.988615657382</v>
+        <v>3790.988615983603</v>
       </c>
       <c r="KE2" t="n">
-        <v>-698798.1557801345</v>
+        <v>-698798.1558755006</v>
       </c>
       <c r="KF2" t="n">
-        <v>717.8532654824722</v>
+        <v>717.8532654820797</v>
       </c>
       <c r="KG2" t="n">
-        <v>1006.75873167509</v>
+        <v>1006.758731672591</v>
       </c>
       <c r="KH2" t="n">
-        <v>1.402457549591898</v>
+        <v>1.402457549589184</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.999534092933453</v>
+        <v>0.9995340929339731</v>
       </c>
       <c r="KJ2" t="n">
-        <v>344.8001192153018</v>
+        <v>344.8001192149976</v>
       </c>
       <c r="KK2" t="n">
-        <v>188083.7932236664</v>
+        <v>188083.7930097718</v>
       </c>
       <c r="KL2" t="n">
-        <v>5.316779201761499e-06</v>
+        <v>5.316779207807901e-06</v>
       </c>
       <c r="KM2" t="n">
-        <v>134110.1506269455</v>
+        <v>134110.150474691</v>
       </c>
       <c r="KN2" t="n">
-        <v>7.456557131023602e-06</v>
+        <v>7.456557139488992e-06</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.0033955461683614</v>
+        <v>0.003395546168350186</v>
       </c>
       <c r="KP2" t="n">
-        <v>1.832896897522791e-05</v>
+        <v>1.832896897519363e-05</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.02606674484507009</v>
+        <v>0.02606674484500232</v>
       </c>
       <c r="KR2" t="n">
-        <v>134171.9685289177</v>
+        <v>134171.9683765247</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.582036722951679</v>
+        <v>1.582036721155331</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.582036722951679</v>
+        <v>1.582036721155331</v>
       </c>
       <c r="KU2" t="n">
-        <v>336974.7888202441</v>
+        <v>336974.7888203733</v>
       </c>
       <c r="KV2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KW2" t="n">
-        <v>3790.988615657382</v>
+        <v>3790.988615983603</v>
       </c>
       <c r="KX2" t="n">
-        <v>717.8532654824722</v>
+        <v>717.8532654820797</v>
       </c>
       <c r="KY2" t="n">
-        <v>1006.75873167509</v>
+        <v>1006.758731672591</v>
       </c>
       <c r="KZ2" t="n">
-        <v>344.8001192153018</v>
+        <v>344.8001192149976</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.999534092933453</v>
+        <v>0.9995340929339731</v>
       </c>
       <c r="LB2" t="n">
-        <v>1.832896897522791e-05</v>
+        <v>1.832896897519363e-05</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.02606674484507009</v>
+        <v>0.02606674484500232</v>
       </c>
       <c r="LD2" t="n">
-        <v>269.569720863328</v>
+        <v>269.5697205308508</v>
       </c>
       <c r="LE2" t="n">
-        <v>97234.10311351047</v>
+        <v>97234.10258444231</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.257366911671575</v>
+        <v>1.257366906382044</v>
       </c>
       <c r="LG2" t="n">
-        <v>318366.5953615594</v>
+        <v>318366.5951241778</v>
       </c>
       <c r="LH2" t="n">
-        <v>395698.122230073</v>
+        <v>395698.1218972375</v>
       </c>
       <c r="LI2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978378</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-626237.6206873332</v>
+        <v>-626237.6198476905</v>
       </c>
       <c r="LK2" t="n">
-        <v>716.8283699433319</v>
+        <v>716.8283699323572</v>
       </c>
       <c r="LL2" t="n">
-        <v>1005.551463586573</v>
+        <v>1005.551463571392</v>
       </c>
       <c r="LM2" t="n">
-        <v>1.402778553067124</v>
+        <v>1.402778553067423</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.9993767605631662</v>
+        <v>0.9993767605621823</v>
       </c>
       <c r="LO2" t="n">
-        <v>329.2593861371739</v>
+        <v>329.2593859338319</v>
       </c>
       <c r="LP2" t="n">
-        <v>136313.3389367761</v>
+        <v>136313.3381949617</v>
       </c>
       <c r="LQ2" t="n">
-        <v>7.336039215236398e-06</v>
+        <v>7.336039255158972e-06</v>
       </c>
       <c r="LR2" t="n">
-        <v>97173.81167450263</v>
+        <v>97173.81114566406</v>
       </c>
       <c r="LS2" t="n">
-        <v>1.0290838475593e-05</v>
+        <v>1.029083853159772e-05</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.003722730533258426</v>
+        <v>0.003722730537826505</v>
       </c>
       <c r="LU2" t="n">
-        <v>1.703796107431948e-05</v>
+        <v>1.703796105749481e-05</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.02408445696114378</v>
+        <v>0.02408445693540396</v>
       </c>
       <c r="LW2" t="n">
-        <v>97234.10311351047</v>
+        <v>97234.10258444231</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.257366911671575</v>
+        <v>1.257366906382044</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.257366911671575</v>
+        <v>1.257366906382044</v>
       </c>
       <c r="LZ2" t="n">
-        <v>318366.5953615594</v>
+        <v>318366.5951241778</v>
       </c>
       <c r="MA2" t="n">
-        <v>395698.122230073</v>
+        <v>395698.1218972375</v>
       </c>
       <c r="MB2" t="n">
-        <v>3790.988615652157</v>
+        <v>3790.988615978378</v>
       </c>
       <c r="MC2" t="n">
-        <v>716.8283699433319</v>
+        <v>716.8283699323572</v>
       </c>
       <c r="MD2" t="n">
-        <v>1005.551463586573</v>
+        <v>1005.551463571392</v>
       </c>
       <c r="ME2" t="n">
-        <v>329.2593861371739</v>
+        <v>329.2593859338319</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.9993767605631662</v>
+        <v>0.9993767605621823</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.703796107431948e-05</v>
+        <v>1.703796105749481e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02408445696114378</v>
+        <v>0.02408445693540396</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.8151239228388029</v>
+        <v>0.8151239292973965</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.4086924952158685</v>
+        <v>0.4086924991964686</v>
       </c>
       <c r="MK2" t="n">
-        <v>240769.6717204738</v>
+        <v>240769.6728106235</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.709176851714887</v>
+        <v>2.709176836726646</v>
       </c>
       <c r="MM2" t="n">
-        <v>382035.5482648527</v>
+        <v>382035.5479320172</v>
       </c>
       <c r="MN2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO2" t="n">
-        <v>162.4251331584836</v>
+        <v>162.4251614613126</v>
       </c>
       <c r="MP2" t="n">
-        <v>138.1172908588142</v>
+        <v>138.1173065321121</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-85.47243910976709</v>
+        <v>-85.47246756732864</v>
       </c>
       <c r="MR2" t="n">
-        <v>-31.75085973611128</v>
+        <v>-31.7508653628629</v>
       </c>
       <c r="MS2" t="n">
-        <v>286.2949653855101</v>
+        <v>286.2949978737399</v>
       </c>
       <c r="MT2" t="n">
-        <v>138.1172908588142</v>
+        <v>138.1173065321121</v>
       </c>
       <c r="MU2" t="n">
-        <v>-250.7756391097671</v>
+        <v>-250.7756675673286</v>
       </c>
       <c r="MV2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW2" t="n">
-        <v>228.6352360213936</v>
+        <v>228.6352263965616</v>
       </c>
       <c r="MX2" t="n">
-        <v>51080.00055870182</v>
+        <v>51079.99233675982</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.7788691593532461</v>
+        <v>0.778869066780578</v>
       </c>
       <c r="MZ2" t="n">
-        <v>289133.4575437849</v>
+        <v>289133.4506710938</v>
       </c>
       <c r="NA2" t="n">
-        <v>354715.7186274275</v>
+        <v>354715.7089932748</v>
       </c>
       <c r="NB2" t="n">
-        <v>3810.753361463924</v>
+        <v>3810.753365497002</v>
       </c>
       <c r="NC2" t="n">
-        <v>-516556.7755901958</v>
+        <v>-516556.7494685912</v>
       </c>
       <c r="ND2" t="n">
-        <v>715.8948540938825</v>
+        <v>715.8948539547744</v>
       </c>
       <c r="NE2" t="n">
-        <v>1004.247084042401</v>
+        <v>1004.247083825491</v>
       </c>
       <c r="NF2" t="n">
-        <v>1.402785727959297</v>
+        <v>1.402785727928885</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.9992795353179399</v>
+        <v>0.9992795353079962</v>
       </c>
       <c r="NH2" t="n">
-        <v>303.2023564737505</v>
+        <v>303.2023500854584</v>
       </c>
       <c r="NI2" t="n">
-        <v>71602.74172956691</v>
+        <v>71602.73020195361</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1.396594565857344e-05</v>
+        <v>1.396594790700755e-05</v>
       </c>
       <c r="NK2" t="n">
-        <v>51043.24937332451</v>
+        <v>51043.24115677313</v>
       </c>
       <c r="NL2" t="n">
-        <v>1.959122924730191e-05</v>
+        <v>1.959123240094846e-05</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.004386853922053721</v>
+        <v>0.004386854106179188</v>
       </c>
       <c r="NN2" t="n">
-        <v>1.490180086228702e-05</v>
+        <v>1.490180034367715e-05</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.0208397915850955</v>
+        <v>0.02083979080283039</v>
       </c>
       <c r="NP2" t="n">
-        <v>51080.00055870182</v>
+        <v>51079.99233675982</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7788691593532461</v>
+        <v>0.778869066780578</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.7788691593532461</v>
+        <v>0.778869066780578</v>
       </c>
       <c r="NS2" t="n">
-        <v>289133.4575437849</v>
+        <v>289133.4506710938</v>
       </c>
       <c r="NT2" t="n">
-        <v>354715.7186274275</v>
+        <v>354715.7089932748</v>
       </c>
       <c r="NU2" t="n">
-        <v>3810.753361463924</v>
+        <v>3810.753365497002</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8948540938825</v>
+        <v>715.8948539547744</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.247084042401</v>
+        <v>1004.247083825491</v>
       </c>
       <c r="NX2" t="n">
-        <v>303.2023564737505</v>
+        <v>303.2023500854584</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992795353179399</v>
+        <v>0.9992795353079962</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.490180086228702e-05</v>
+        <v>1.490180034367715e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.0208397915850955</v>
+        <v>0.02083979080283039</v>
       </c>
       <c r="OB2" t="n">
-        <v>241.8085217687557</v>
+        <v>241.8085167360379</v>
       </c>
       <c r="OC2" t="n">
-        <v>62112.35605637911</v>
+        <v>62112.35067266641</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.8954656585964483</v>
+        <v>0.8954655996217975</v>
       </c>
       <c r="OE2" t="n">
-        <v>298543.4889592433</v>
+        <v>298543.4853662711</v>
       </c>
       <c r="OF2" t="n">
-        <v>367906.6805681029</v>
+        <v>367906.6755311415</v>
       </c>
       <c r="OG2" t="n">
-        <v>3810.753361456459</v>
+        <v>3810.753365489536</v>
       </c>
       <c r="OH2" t="n">
-        <v>-553565.9565910004</v>
+        <v>-553565.9434247479</v>
       </c>
       <c r="OI2" t="n">
-        <v>716.1111451706745</v>
+        <v>716.1111450717189</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1004.545565230867</v>
+        <v>1004.545565080785</v>
       </c>
       <c r="OK2" t="n">
-        <v>1.402778845162993</v>
+        <v>1.402778845147257</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.9993123068935289</v>
+        <v>0.9993123068885522</v>
       </c>
       <c r="OM2" t="n">
-        <v>311.8243819179909</v>
+        <v>311.8243786696795</v>
       </c>
       <c r="ON2" t="n">
-        <v>87070.10647214964</v>
+        <v>87070.09892374313</v>
       </c>
       <c r="OO2" t="n">
-        <v>1.148499801501749e-05</v>
+        <v>1.148499901069149e-05</v>
       </c>
       <c r="OP2" t="n">
-        <v>62069.73164186317</v>
+        <v>62069.72626152127</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1.611091225220549e-05</v>
+        <v>1.611091364873519e-05</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.004148320238479622</v>
+        <v>0.004148320324471373</v>
       </c>
       <c r="OS2" t="n">
-        <v>1.560393135883773e-05</v>
+        <v>1.560393109327824e-05</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.02190110391322304</v>
+        <v>0.02190110351077172</v>
       </c>
       <c r="OU2" t="n">
-        <v>62112.35605637911</v>
+        <v>62112.35067266641</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.8954656585964483</v>
+        <v>0.8954655996217975</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.8954656585964483</v>
+        <v>0.8954655996217975</v>
       </c>
       <c r="OX2" t="n">
-        <v>298543.4889592433</v>
+        <v>298543.4853662711</v>
       </c>
       <c r="OY2" t="n">
-        <v>367906.6805681029</v>
+        <v>367906.6755311415</v>
       </c>
       <c r="OZ2" t="n">
-        <v>3810.753361456459</v>
+        <v>3810.753365489536</v>
       </c>
       <c r="PA2" t="n">
-        <v>716.1111451706745</v>
+        <v>716.1111450717189</v>
       </c>
       <c r="PB2" t="n">
-        <v>1004.545565230867</v>
+        <v>1004.545565080785</v>
       </c>
       <c r="PC2" t="n">
-        <v>311.8243819179909</v>
+        <v>311.8243786696795</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9993123068935289</v>
+        <v>0.9993123068885522</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.560393135883773e-05</v>
+        <v>1.560393109327824e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.02190110391322304</v>
+        <v>0.02190110351077172</v>
       </c>
       <c r="PG2" t="n">
-        <v>269.5516161253951</v>
+        <v>269.5516157896919</v>
       </c>
       <c r="PH2" t="n">
-        <v>90760.5820447372</v>
+        <v>90760.58037815191</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.173686223670252</v>
+        <v>1.17368620357257</v>
       </c>
       <c r="PJ2" t="n">
-        <v>318368.6109737181</v>
+        <v>318368.6107366846</v>
       </c>
       <c r="PK2" t="n">
-        <v>395698.1222300729</v>
+        <v>395698.1218972375</v>
       </c>
       <c r="PL2" t="n">
-        <v>3810.753361453252</v>
+        <v>3810.753365486328</v>
       </c>
       <c r="PM2" t="n">
-        <v>-631496.6050049332</v>
+        <v>-631496.6051456088</v>
       </c>
       <c r="PN2" t="n">
-        <v>716.8072235544875</v>
+        <v>716.8072235397287</v>
       </c>
       <c r="PO2" t="n">
-        <v>1005.418959935487</v>
+        <v>1005.418959896626</v>
       </c>
       <c r="PP2" t="n">
-        <v>1.402635083600076</v>
+        <v>1.402635083574742</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9994178347647463</v>
+        <v>0.9994178347712769</v>
       </c>
       <c r="PR2" t="n">
-        <v>329.2449559996765</v>
+        <v>329.2449557938156</v>
       </c>
       <c r="PS2" t="n">
-        <v>127230.2169368093</v>
+        <v>127230.2145990737</v>
       </c>
       <c r="PT2" t="n">
-        <v>7.859768096573038e-06</v>
+        <v>7.859768240988886e-06</v>
       </c>
       <c r="PU2" t="n">
-        <v>90707.99556093631</v>
+        <v>90707.99389590061</v>
       </c>
       <c r="PV2" t="n">
-        <v>1.102438648121394e-05</v>
+        <v>1.102438668357755e-05</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.003722110330101844</v>
+        <v>0.00372211033455785</v>
       </c>
       <c r="PX2" t="n">
-        <v>1.703606691185551e-05</v>
+        <v>1.703606689469475e-05</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.02408077845886053</v>
+        <v>0.02408077843246756</v>
       </c>
       <c r="PZ2" t="n">
-        <v>90760.5820447372</v>
+        <v>90760.58037815191</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.173686223670252</v>
+        <v>1.17368620357257</v>
       </c>
       <c r="QB2" t="n">
-        <v>1.173686223670252</v>
+        <v>1.17368620357257</v>
       </c>
       <c r="QC2" t="n">
-        <v>318368.6109737181</v>
+        <v>318368.6107366846</v>
       </c>
       <c r="QD2" t="n">
-        <v>395698.1222300729</v>
+        <v>395698.1218972375</v>
       </c>
       <c r="QE2" t="n">
-        <v>3810.753361453252</v>
+        <v>3810.753365486328</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.8072235544875</v>
+        <v>716.8072235397287</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.418959935487</v>
+        <v>1005.418959896626</v>
       </c>
       <c r="QH2" t="n">
-        <v>329.2449559996765</v>
+        <v>329.2449557938156</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9994178347647463</v>
+        <v>0.9994178347712769</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.703606691185551e-05</v>
+        <v>1.703606689469475e-05</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.02408077845886053</v>
+        <v>0.02408077843246756</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.02720806893374346</v>
+        <v>0.02720806897562778</v>
       </c>
       <c r="QM2" t="n">
         <v>0</v>
@@ -9622,55 +9622,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.08021887317690822</v>
+        <v>0.08021887447590444</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.04179126244265481</v>
+        <v>0.04179126288988892</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.1631170467818831</v>
+        <v>0.1631170485699978</v>
       </c>
       <c r="QR2" t="n">
-        <v>2.37345862396654e-05</v>
+        <v>2.373451360146439e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.5356987823165069</v>
+        <v>0.5356988869496977</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9442372701687622</v>
+        <v>0.9442373972135999</v>
       </c>
       <c r="QU2" t="n">
-        <v>389954.4442501718</v>
+        <v>389954.455724489</v>
       </c>
       <c r="QV2" t="n">
-        <v>2.709150566979405</v>
+        <v>2.709150552412131</v>
       </c>
       <c r="QW2" t="n">
-        <v>382035.5482648527</v>
+        <v>382035.5479320172</v>
       </c>
       <c r="QX2" t="n">
         <v>0</v>
       </c>
       <c r="QY2" t="n">
-        <v>3749.900720455626</v>
+        <v>3749.90072602022</v>
       </c>
       <c r="QZ2" t="n">
-        <v>4.36716398848079</v>
+        <v>4.36716561705429</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.00960669962964018</v>
+        <v>0.009606699811552624</v>
       </c>
       <c r="RB2" t="n">
         <v>0</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02826487722759335</v>
+        <v>0.02826487738342108</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01466944397144397</v>
+        <v>0.01466944390990033</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.004937319689669858</v>
+        <v>0.004937319569641396</v>
       </c>
     </row>
     <row r="3">
@@ -9678,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01762361550506033</v>
+        <v>0.01762361550009564</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9687,25 +9687,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914564471667305</v>
+        <v>0.04914564471554182</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204932876097651</v>
+        <v>0.08204932875488058</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.014039514809724e-12</v>
+        <v>7.225803289045984e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350717134</v>
+        <v>80.71248350682647</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350717134</v>
+        <v>80.71248350682647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350717134</v>
+        <v>80.71248350682647</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350717134</v>
+        <v>80.71248350682647</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9726,97 +9726,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750146408</v>
+        <v>292.3522750146688</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796842756</v>
+        <v>132772.17968432</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747001546</v>
+        <v>1.582932747001923</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.843982437</v>
+        <v>334649.8439824571</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785917425</v>
+        <v>418527.1785917706</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142075625</v>
+        <v>-687417.3142076406</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.712900751747</v>
+        <v>717.7129007517483</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.64765284595</v>
+        <v>1006.647652845952</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602406</v>
+        <v>1.402577063602405</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994979633405109</v>
+        <v>0.9994979633405111</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100795358</v>
+        <v>342.9081100795522</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6856008287</v>
+        <v>186130.6856008909</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261065182e-06</v>
+        <v>5.372569261063388e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094704209</v>
+        <v>132706.2094704653</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418185351e-06</v>
+        <v>7.535442418182829e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124706551</v>
+        <v>0.003433462124706222</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103498772e-05</v>
+        <v>1.817140103498908e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250874152</v>
+        <v>0.02582429250874364</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796842756</v>
+        <v>132772.17968432</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747001546</v>
+        <v>1.582932747001923</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747001546</v>
+        <v>1.582932747001923</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.843982437</v>
+        <v>334649.8439824571</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785917425</v>
+        <v>418527.1785917706</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.712900751747</v>
+        <v>717.7129007517483</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.64765284595</v>
+        <v>1006.647652845952</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100795358</v>
+        <v>342.9081100795522</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994979633405109</v>
+        <v>0.9994979633405111</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103498772e-05</v>
+        <v>1.817140103498908e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250874152</v>
+        <v>0.02582429250874364</v>
       </c>
       <c r="AW3" t="n">
         <v>295.5999999999887</v>
@@ -10005,16 +10005,16 @@
         <v>0.02606863419705883</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353764204890065</v>
+        <v>0.2353764204879895</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2353764204890065</v>
+        <v>0.2353764204879895</v>
       </c>
       <c r="DI3" t="n">
-        <v>183929.9703419003</v>
+        <v>183929.9703411445</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.742859854034593</v>
+        <v>2.742859854023528</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -10023,310 +10023,310 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>306.841885999464</v>
+        <v>306.8418863320468</v>
       </c>
       <c r="DN3" t="n">
-        <v>125.3773393276449</v>
+        <v>125.3773394635402</v>
       </c>
       <c r="DO3" t="n">
-        <v>280.0579686186926</v>
+        <v>280.0579689222446</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>306.841885999464</v>
+        <v>306.8418863320468</v>
       </c>
       <c r="DR3" t="n">
-        <v>125.3773393276449</v>
+        <v>125.3773394635402</v>
       </c>
       <c r="DS3" t="n">
-        <v>280.0579686186926</v>
+        <v>280.0579689222446</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>248.6139895367989</v>
+        <v>248.6139894350839</v>
       </c>
       <c r="DV3" t="n">
-        <v>72670.28952800325</v>
+        <v>72670.28941949728</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.019019580644658</v>
+        <v>1.019019579540363</v>
       </c>
       <c r="DX3" t="n">
-        <v>303394.5310730831</v>
+        <v>303394.5310004323</v>
       </c>
       <c r="DY3" t="n">
-        <v>374708.4595866355</v>
+        <v>374708.4594847857</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3793.461869264413</v>
+        <v>3793.46186928304</v>
       </c>
       <c r="EA3" t="n">
-        <v>-568399.229886913</v>
+        <v>-568399.2296075418</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.2663343400864</v>
+        <v>716.2663343378512</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.83237561105</v>
+        <v>1004.832375608032</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402875337617015</v>
+        <v>1.402875337617178</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9992923632803423</v>
+        <v>0.9992923632800274</v>
       </c>
       <c r="EF3" t="n">
-        <v>316.1865760697524</v>
+        <v>316.1865760049899</v>
       </c>
       <c r="EG3" t="n">
-        <v>101875.4135079683</v>
+        <v>101875.4133558345</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.815911077718318e-06</v>
+        <v>9.815911092376724e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72619.00667597326</v>
+        <v>72619.0065675206</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.377049956717268e-05</v>
+        <v>1.37704995877382e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004035765671849483</v>
+        <v>0.004035765673496432</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.596159563432356e-05</v>
+        <v>1.596159562901473e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.02244419801784557</v>
+        <v>0.02244419800978327</v>
       </c>
       <c r="EN3" t="n">
-        <v>72670.28952800325</v>
+        <v>72670.28941949728</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.019019580644658</v>
+        <v>1.019019579540363</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.019019580644658</v>
+        <v>1.019019579540363</v>
       </c>
       <c r="EQ3" t="n">
-        <v>303394.5310730831</v>
+        <v>303394.5310004323</v>
       </c>
       <c r="ER3" t="n">
-        <v>374708.4595866355</v>
+        <v>374708.4594847857</v>
       </c>
       <c r="ES3" t="n">
-        <v>3793.461869264413</v>
+        <v>3793.46186928304</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.2663343400864</v>
+        <v>716.2663343378512</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.83237561105</v>
+        <v>1004.832375608032</v>
       </c>
       <c r="EV3" t="n">
-        <v>316.1865760697524</v>
+        <v>316.1865760049899</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9992923632803423</v>
+        <v>0.9992923632800274</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.596159563432356e-05</v>
+        <v>1.596159562901473e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.02244419801784557</v>
+        <v>0.02244419800978327</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5884537395618</v>
+        <v>295.5884537395417</v>
       </c>
       <c r="FA3" t="n">
-        <v>133020.3589851542</v>
+        <v>133020.3589765182</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.568465981834275</v>
+        <v>1.568465981732507</v>
       </c>
       <c r="FC3" t="n">
-        <v>336975.2222656906</v>
+        <v>336975.2222656938</v>
       </c>
       <c r="FD3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="FE3" t="n">
-        <v>3793.461869271845</v>
+        <v>3793.461869290471</v>
       </c>
       <c r="FF3" t="n">
-        <v>-699519.097169362</v>
+        <v>-699519.0971747917</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.8502656720349</v>
+        <v>717.8502656720127</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.739822664674</v>
+        <v>1006.739822664532</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.402437069131941</v>
+        <v>1.402437069131787</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.9995380147657953</v>
+        <v>0.9995380147658247</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.7973817658203</v>
+        <v>344.7973817657997</v>
       </c>
       <c r="FL3" t="n">
-        <v>186467.4460126093</v>
+        <v>186467.4460004884</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.362866395093853e-06</v>
+        <v>5.362866395442455e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>132959.5816573974</v>
+        <v>132959.5816487692</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.521082629281599e-06</v>
+        <v>7.521082629769666e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395470178530475</v>
+        <v>0.003395470178529905</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832867335241869e-05</v>
+        <v>1.832867335241647e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02606617654997493</v>
+        <v>0.02606617654997067</v>
       </c>
       <c r="FS3" t="n">
-        <v>133020.3589851542</v>
+        <v>133020.3589765182</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.568465981834275</v>
+        <v>1.568465981732507</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.568465981834275</v>
+        <v>1.568465981732507</v>
       </c>
       <c r="FV3" t="n">
-        <v>336975.2222656906</v>
+        <v>336975.2222656938</v>
       </c>
       <c r="FW3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="FX3" t="n">
-        <v>3793.461869271845</v>
+        <v>3793.461869290471</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.8502656720349</v>
+        <v>717.8502656720127</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.739822664674</v>
+        <v>1006.739822664532</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.7973817658203</v>
+        <v>344.7973817657997</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9995380147657953</v>
+        <v>0.9995380147658247</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832867335241869e-05</v>
+        <v>1.832867335241647e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02606617654997493</v>
+        <v>0.02606617654997067</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.5884537395618</v>
+        <v>295.5884537395417</v>
       </c>
       <c r="GF3" t="n">
-        <v>133020.3589851542</v>
+        <v>133020.3589765182</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.568465981834275</v>
+        <v>1.568465981732507</v>
       </c>
       <c r="GH3" t="n">
-        <v>336975.2222656906</v>
+        <v>336975.2222656938</v>
       </c>
       <c r="GI3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3793.461869271845</v>
+        <v>3793.461869290471</v>
       </c>
       <c r="GK3" t="n">
-        <v>-699519.097169362</v>
+        <v>-699519.0971747917</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.8502656720349</v>
+        <v>717.8502656720127</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.739822664674</v>
+        <v>1006.739822664532</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402437069131941</v>
+        <v>1.402437069131787</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.9995380147657953</v>
+        <v>0.9995380147658247</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.7973817658203</v>
+        <v>344.7973817657997</v>
       </c>
       <c r="GQ3" t="n">
-        <v>186467.4460126093</v>
+        <v>186467.4460004884</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.362866395093853e-06</v>
+        <v>5.362866395442455e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>132959.5816573974</v>
+        <v>132959.5816487692</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.521082629281599e-06</v>
+        <v>7.521082629769666e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395470178530475</v>
+        <v>0.003395470178529905</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832867335241869e-05</v>
+        <v>1.832867335241647e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.02606617654997493</v>
+        <v>0.02606617654997067</v>
       </c>
       <c r="GX3" t="n">
-        <v>133020.3589851542</v>
+        <v>133020.3589765182</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.568465981834275</v>
+        <v>1.568465981732507</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.568465981834275</v>
+        <v>1.568465981732507</v>
       </c>
       <c r="HA3" t="n">
-        <v>336975.2222656906</v>
+        <v>336975.2222656938</v>
       </c>
       <c r="HB3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="HC3" t="n">
-        <v>3793.461869271845</v>
+        <v>3793.461869290471</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.8502656720349</v>
+        <v>717.8502656720127</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.739822664674</v>
+        <v>1006.739822664532</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.7973817658203</v>
+        <v>344.7973817657997</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.9995380147657953</v>
+        <v>0.9995380147658247</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832867335241869e-05</v>
+        <v>1.832867335241647e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606617654997493</v>
+        <v>0.02606617654997067</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01795407855348187</v>
+        <v>0.01795407855452004</v>
       </c>
       <c r="HK3" t="n">
         <v>0</v>
@@ -10335,28 +10335,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.04927004794520388</v>
+        <v>0.04927004794608909</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.08250419503792888</v>
+        <v>0.08250419503985226</v>
       </c>
       <c r="HP3" t="n">
-        <v>8.402787806657819e-06</v>
+        <v>8.402792435316386e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9704456457752116</v>
+        <v>0.9704456470258384</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9704456457752116</v>
+        <v>0.9704456470258382</v>
       </c>
       <c r="HS3" t="n">
-        <v>512458.3901054353</v>
+        <v>512458.3902759846</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.742849774789297</v>
+        <v>2.742849774789862</v>
       </c>
       <c r="HU3" t="n">
         <v>421784.4310885898</v>
@@ -10365,676 +10365,676 @@
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>2117.884092279186</v>
+        <v>2117.884088706342</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006656965200861428</v>
+        <v>0.006656965187386473</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.01856377577908761</v>
+        <v>0.01856377574631326</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005771737615548419</v>
+        <v>0.005771737605491268</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02714521515807734</v>
+        <v>0.02714521512729258</v>
       </c>
       <c r="IE3" t="n">
         <v>0</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.01389203144459183</v>
+        <v>0.01389203144512741</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.07971792776279987</v>
+        <v>0.0797179277083543</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.04153273190090934</v>
+        <v>0.04153273187854656</v>
       </c>
       <c r="II3" t="n">
-        <v>0.1622879062663784</v>
+        <v>0.1622879061593208</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-6.787950757036754e-11</v>
+        <v>-2.899777640230639e-11</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>264.1672633078468</v>
+        <v>264.1672632716003</v>
       </c>
       <c r="IM3" t="n">
-        <v>108.9595187352889</v>
+        <v>108.9595187406558</v>
       </c>
       <c r="IN3" t="n">
-        <v>240.6494676506298</v>
+        <v>240.649467608411</v>
       </c>
       <c r="IO3" t="n">
-        <v>65.64027853154167</v>
+        <v>65.64027852670438</v>
       </c>
       <c r="IP3" t="n">
-        <v>132.47353234479</v>
+        <v>132.4735323251917</v>
       </c>
       <c r="IQ3" t="n">
-        <v>108.9595187352889</v>
+        <v>108.9595187406558</v>
       </c>
       <c r="IR3" t="n">
-        <v>75.34626765062976</v>
+        <v>75.34626760841101</v>
       </c>
       <c r="IS3" t="n">
-        <v>34.66412872880294</v>
+        <v>34.66412871246394</v>
       </c>
       <c r="IT3" t="n">
-        <v>260.7802901229286</v>
+        <v>260.7802901324069</v>
       </c>
       <c r="IU3" t="n">
-        <v>86583.36951079837</v>
+        <v>86583.36952855735</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.157423583383952</v>
+        <v>1.157423583579293</v>
       </c>
       <c r="IW3" t="n">
-        <v>312085.2738351861</v>
+        <v>312085.2738419424</v>
       </c>
       <c r="IX3" t="n">
-        <v>386892.2595868114</v>
+        <v>386892.2595962859</v>
       </c>
       <c r="IY3" t="n">
-        <v>3791.058035546658</v>
+        <v>3791.058035524151</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-601740.9547959061</v>
+        <v>-601740.954816495</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.5675470211254</v>
+        <v>716.567547021409</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.229517572508</v>
+        <v>1005.229517572984</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.402839860319368</v>
+        <v>1.402839860319477</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993351460151009</v>
+        <v>0.9993351460150911</v>
       </c>
       <c r="JE3" t="n">
-        <v>323.8405877146053</v>
+        <v>323.8405877204999</v>
       </c>
       <c r="JF3" t="n">
-        <v>121382.1666170713</v>
+        <v>121382.1666419761</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.238442498350983e-06</v>
+        <v>8.238442496660646e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>86526.03198018449</v>
+        <v>86526.03199793099</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.155721552363585e-05</v>
+        <v>1.155721552126546e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.003847956675687136</v>
+        <v>0.003847956675548591</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.659069868025668e-05</v>
+        <v>1.659069868074322e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02340153699121911</v>
+        <v>0.02340153699196183</v>
       </c>
       <c r="JM3" t="n">
-        <v>86583.36951079837</v>
+        <v>86583.36952855735</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.157423583383952</v>
+        <v>1.157423583579293</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.157423583383952</v>
+        <v>1.157423583579293</v>
       </c>
       <c r="JP3" t="n">
-        <v>312085.2738351861</v>
+        <v>312085.2738419424</v>
       </c>
       <c r="JQ3" t="n">
-        <v>386892.2595868114</v>
+        <v>386892.2595962859</v>
       </c>
       <c r="JR3" t="n">
-        <v>3791.058035546658</v>
+        <v>3791.058035524151</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.5675470211254</v>
+        <v>716.567547021409</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.229517572508</v>
+        <v>1005.229517572984</v>
       </c>
       <c r="JU3" t="n">
-        <v>323.8405877146053</v>
+        <v>323.8405877204999</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993351460151009</v>
+        <v>0.9993351460150911</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659069868025668e-05</v>
+        <v>1.659069868074322e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02340153699121911</v>
+        <v>0.02340153699196183</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.5910489676523</v>
+        <v>295.5910489677767</v>
       </c>
       <c r="JZ3" t="n">
-        <v>134139.509214953</v>
+        <v>134139.5092256341</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.58165421939966</v>
+        <v>1.581654219524992</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.801038181</v>
+        <v>336974.8010382487</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.058035551884</v>
+        <v>3791.058035529378</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698818.3903374389</v>
+        <v>-698818.3903311576</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.853180931651</v>
+        <v>717.853180931683</v>
       </c>
       <c r="KG3" t="n">
-        <v>1006.758198712589</v>
+        <v>1006.758198712767</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402456972337977</v>
+        <v>1.402456972338162</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.9995342034562051</v>
+        <v>0.9995342034561701</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.800042052284</v>
+        <v>344.8000420523675</v>
       </c>
       <c r="KK3" t="n">
-        <v>188038.2343147331</v>
+        <v>188038.2343297245</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.31806737945767e-06</v>
+        <v>5.318067379033686e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>134077.7207597767</v>
+        <v>134077.7207704483</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.458360675683559e-06</v>
+        <v>7.458360675089929e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395544026638872</v>
+        <v>0.00339554402663842</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.832896064261237e-05</v>
+        <v>1.832896064261994e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606672882651117</v>
+        <v>0.02606672882652387</v>
       </c>
       <c r="KR3" t="n">
-        <v>134139.509214953</v>
+        <v>134139.5092256341</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.58165421939966</v>
+        <v>1.581654219524992</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.58165421939966</v>
+        <v>1.581654219524992</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.801038181</v>
+        <v>336974.8010382487</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KW3" t="n">
-        <v>3791.058035551884</v>
+        <v>3791.058035529378</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.853180931651</v>
+        <v>717.853180931683</v>
       </c>
       <c r="KY3" t="n">
-        <v>1006.758198712589</v>
+        <v>1006.758198712767</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.800042052284</v>
+        <v>344.8000420523675</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9995342034562051</v>
+        <v>0.9995342034561701</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.832896064261237e-05</v>
+        <v>1.832896064261994e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606672882651117</v>
+        <v>0.02606672882652387</v>
       </c>
       <c r="LD3" t="n">
-        <v>269.538473456814</v>
+        <v>269.5384734635998</v>
       </c>
       <c r="LE3" t="n">
-        <v>97171.30588808583</v>
+        <v>97171.30590422715</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.256700542365811</v>
+        <v>1.256700542542943</v>
       </c>
       <c r="LG3" t="n">
-        <v>318344.3157456254</v>
+        <v>318344.3157504578</v>
       </c>
       <c r="LH3" t="n">
-        <v>395666.8779728647</v>
+        <v>395666.8779796427</v>
       </c>
       <c r="LI3" t="n">
-        <v>3791.058035553287</v>
+        <v>3791.058035530781</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-626169.1177163563</v>
+        <v>-626169.1177292371</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.8272970271333</v>
+        <v>716.8272970273746</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.549769724455</v>
+        <v>1005.549769724874</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.40277828968669</v>
+        <v>1.402778289686802</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993767516361319</v>
+        <v>0.9993767516361178</v>
       </c>
       <c r="LO3" t="n">
-        <v>329.240267954658</v>
+        <v>329.2402679588112</v>
       </c>
       <c r="LP3" t="n">
-        <v>136225.2756776509</v>
+        <v>136225.2757002888</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.34078162092543e-06</v>
+        <v>7.340781619705543e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>97111.05217352403</v>
+        <v>97111.05218965407</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.029748908716526e-05</v>
+        <v>1.029748908545486e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003723158143066777</v>
+        <v>0.003723158142974243</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.70363778082989e-05</v>
+        <v>1.703637780864312e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02408203317215233</v>
+        <v>0.02408203317267958</v>
       </c>
       <c r="LW3" t="n">
-        <v>97171.30588808583</v>
+        <v>97171.30590422715</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.256700542365811</v>
+        <v>1.256700542542943</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.256700542365811</v>
+        <v>1.256700542542943</v>
       </c>
       <c r="LZ3" t="n">
-        <v>318344.3157456254</v>
+        <v>318344.3157504578</v>
       </c>
       <c r="MA3" t="n">
-        <v>395666.8779728647</v>
+        <v>395666.8779796427</v>
       </c>
       <c r="MB3" t="n">
-        <v>3791.058035553287</v>
+        <v>3791.058035530781</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.8272970271333</v>
+        <v>716.8272970273746</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.549769724455</v>
+        <v>1005.549769724874</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.240267954658</v>
+        <v>329.2402679588112</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993767516361319</v>
+        <v>0.9993767516361178</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.70363778082989e-05</v>
+        <v>1.703637780864312e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02408203317215233</v>
+        <v>0.02408203317267958</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8157324107275045</v>
+        <v>0.8157324106007292</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4090701949365791</v>
+        <v>0.4090701948686149</v>
       </c>
       <c r="MK3" t="n">
-        <v>240841.4202258139</v>
+        <v>240841.4202237679</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.707434428043141</v>
+        <v>2.707434428633437</v>
       </c>
       <c r="MM3" t="n">
-        <v>382004.3040077447</v>
+        <v>382004.304014623</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>162.4026138584633</v>
+        <v>162.4026131056429</v>
       </c>
       <c r="MP3" t="n">
-        <v>138.1048200389965</v>
+        <v>138.1048196220877</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-85.44979619669977</v>
+        <v>-85.44979543973031</v>
       </c>
       <c r="MR3" t="n">
-        <v>-31.74638206025021</v>
+        <v>-31.74638191053741</v>
       </c>
       <c r="MS3" t="n">
-        <v>286.2691153785643</v>
+        <v>286.2691145143793</v>
       </c>
       <c r="MT3" t="n">
-        <v>138.1048200389965</v>
+        <v>138.1048196220877</v>
       </c>
       <c r="MU3" t="n">
-        <v>-250.7529961966998</v>
+        <v>-250.7529954397303</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>228.6113646857654</v>
+        <v>228.6113649400014</v>
       </c>
       <c r="MX3" t="n">
-        <v>51046.43421240057</v>
+        <v>51046.43443315454</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7784384885646642</v>
+        <v>0.7784384910652216</v>
       </c>
       <c r="MZ3" t="n">
-        <v>289116.4504201455</v>
+        <v>289116.4506016742</v>
       </c>
       <c r="NA3" t="n">
-        <v>354691.8747629517</v>
+        <v>354691.8750174199</v>
       </c>
       <c r="NB3" t="n">
-        <v>3810.837623709634</v>
+        <v>3810.837623582268</v>
       </c>
       <c r="NC3" t="n">
-        <v>-516508.9149891669</v>
+        <v>-516508.9156744337</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8944413267398</v>
+        <v>715.8944413304311</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.246141403287</v>
+        <v>1004.246141409127</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402785220041876</v>
+        <v>1.402785220042801</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992796963660356</v>
+        <v>0.9992796963662457</v>
       </c>
       <c r="NH3" t="n">
-        <v>303.1865214652557</v>
+        <v>303.1865216340059</v>
       </c>
       <c r="NI3" t="n">
-        <v>71555.67474413246</v>
+        <v>71555.67505364299</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.397513200142103e-05</v>
+        <v>1.397513194097229e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>51009.71533047401</v>
+        <v>51009.71555108039</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.960410861972766e-05</v>
+        <v>1.960410853494398e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004387307257102196</v>
+        <v>0.004387307252238528</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.490051243436638e-05</v>
+        <v>1.490051244806638e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.02083784583943709</v>
+        <v>0.02083784586010247</v>
       </c>
       <c r="NP3" t="n">
-        <v>51046.43421240057</v>
+        <v>51046.43443315454</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7784384885646642</v>
+        <v>0.7784384910652216</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7784384885646642</v>
+        <v>0.7784384910652216</v>
       </c>
       <c r="NS3" t="n">
-        <v>289116.4504201455</v>
+        <v>289116.4506016742</v>
       </c>
       <c r="NT3" t="n">
-        <v>354691.8747629517</v>
+        <v>354691.8750174199</v>
       </c>
       <c r="NU3" t="n">
-        <v>3810.837623709634</v>
+        <v>3810.837623582268</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8944413267398</v>
+        <v>715.8944413304311</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.246141403287</v>
+        <v>1004.246141409127</v>
       </c>
       <c r="NX3" t="n">
-        <v>303.1865214652557</v>
+        <v>303.1865216340059</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992796963660356</v>
+        <v>0.9992796963662457</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.490051243436638e-05</v>
+        <v>1.490051244806638e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.02083784583943709</v>
+        <v>0.02083784586010247</v>
       </c>
       <c r="OB3" t="n">
-        <v>241.7809972081513</v>
+        <v>241.780997340164</v>
       </c>
       <c r="OC3" t="n">
-        <v>62069.49756350191</v>
+        <v>62069.49770929171</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.8949495350999533</v>
+        <v>0.8949495367133108</v>
       </c>
       <c r="OE3" t="n">
-        <v>298523.8747072461</v>
+        <v>298523.8748014806</v>
       </c>
       <c r="OF3" t="n">
-        <v>367879.1792569822</v>
+        <v>367879.1793890902</v>
       </c>
       <c r="OG3" t="n">
-        <v>3810.837623701953</v>
+        <v>3810.837623574586</v>
       </c>
       <c r="OH3" t="n">
-        <v>-553508.9416000176</v>
+        <v>-553508.9419401938</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.1105458292071</v>
+        <v>716.1105458318215</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.544386363441</v>
+        <v>1004.5443863675</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402778372995816</v>
+        <v>1.402778372996363</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9993124280491704</v>
+        <v>0.9993124280492491</v>
       </c>
       <c r="OM3" t="n">
-        <v>311.8066192808704</v>
+        <v>311.80661936608</v>
       </c>
       <c r="ON3" t="n">
-        <v>87010.00783795265</v>
+        <v>87010.0080423644</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.149293081161881e-05</v>
+        <v>1.149293078461858e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>62026.90996164378</v>
+        <v>62026.91010733884</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.612203478487612e-05</v>
+        <v>1.612203474700706e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.004148787819969114</v>
+        <v>0.00414878781771392</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.560247680443023e-05</v>
+        <v>1.560247681139713e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.02189889749285419</v>
+        <v>0.02189889750341304</v>
       </c>
       <c r="OU3" t="n">
-        <v>62069.49756350191</v>
+        <v>62069.49770929171</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.8949495350999533</v>
+        <v>0.8949495367133108</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.8949495350999533</v>
+        <v>0.8949495367133108</v>
       </c>
       <c r="OX3" t="n">
-        <v>298523.8747072461</v>
+        <v>298523.8748014806</v>
       </c>
       <c r="OY3" t="n">
-        <v>367879.1792569822</v>
+        <v>367879.1793890902</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3810.837623701953</v>
+        <v>3810.837623574586</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.1105458292071</v>
+        <v>716.1105458318215</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.544386363441</v>
+        <v>1004.5443863675</v>
       </c>
       <c r="PC3" t="n">
-        <v>311.8066192808704</v>
+        <v>311.80661936608</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9993124280491704</v>
+        <v>0.9993124280492491</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.560247680443023e-05</v>
+        <v>1.560247681139713e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.02189889749285419</v>
+        <v>0.02189889750341304</v>
       </c>
       <c r="PG3" t="n">
-        <v>269.5203631304084</v>
+        <v>269.5203631373849</v>
       </c>
       <c r="PH3" t="n">
-        <v>90697.27309162388</v>
+        <v>90697.27313995882</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.173003510488407</v>
+        <v>1.17300351108343</v>
       </c>
       <c r="PJ3" t="n">
-        <v>318346.330949216</v>
+        <v>318346.3309541101</v>
       </c>
       <c r="PK3" t="n">
-        <v>395666.8779728647</v>
+        <v>395666.8779797429</v>
       </c>
       <c r="PL3" t="n">
-        <v>3810.837623698957</v>
+        <v>3810.837623571591</v>
       </c>
       <c r="PM3" t="n">
-        <v>-631431.4621975009</v>
+        <v>-631431.4621828811</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.8061426296808</v>
+        <v>716.8061426300312</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.417218529109</v>
+        <v>1005.417218530196</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.402634769340323</v>
+        <v>1.402634769341154</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9994178566029549</v>
+        <v>0.9994178566027315</v>
       </c>
       <c r="PR3" t="n">
-        <v>329.2258381486827</v>
+        <v>329.2258381529682</v>
       </c>
       <c r="PS3" t="n">
-        <v>127141.4428886347</v>
+        <v>127141.442956439</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.865256027304307e-06</v>
+        <v>7.865256023109778e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>90644.72496174533</v>
+        <v>90644.72501003226</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.103208157366056e-05</v>
+        <v>1.103208156778371e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003722537603418429</v>
+        <v>0.003722537603327654</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.703448318778743e-05</v>
+        <v>1.703448318814616e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.02407835373384794</v>
+        <v>0.0240783537344013</v>
       </c>
       <c r="PZ3" t="n">
-        <v>90697.27309162388</v>
+        <v>90697.27313995882</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.173003510488407</v>
+        <v>1.17300351108343</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.173003510488407</v>
+        <v>1.17300351108343</v>
       </c>
       <c r="QC3" t="n">
-        <v>318346.330949216</v>
+        <v>318346.3309541101</v>
       </c>
       <c r="QD3" t="n">
-        <v>395666.8779728647</v>
+        <v>395666.8779797429</v>
       </c>
       <c r="QE3" t="n">
-        <v>3810.837623698957</v>
+        <v>3810.837623571591</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.8061426296808</v>
+        <v>716.8061426300312</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.417218529109</v>
+        <v>1005.417218530196</v>
       </c>
       <c r="QH3" t="n">
-        <v>329.2258381486827</v>
+        <v>329.2258381529682</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9994178566029549</v>
+        <v>0.9994178566027315</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.703448318778743e-05</v>
+        <v>1.703448318814616e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.02407835373384794</v>
+        <v>0.0240783537344013</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.02723180806369502</v>
+        <v>0.027231808064896</v>
       </c>
       <c r="QM3" t="n">
         <v>0</v>
@@ -11043,55 +11043,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.08028856723819885</v>
+        <v>0.08028856720565171</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04183303524641716</v>
+        <v>0.04183303523611642</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.1632522527768877</v>
+        <v>0.1632522527352407</v>
       </c>
       <c r="QR3" t="n">
-        <v>2.380844799318438e-05</v>
+        <v>2.380838770721372e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5356524857160385</v>
+        <v>0.5356524829348732</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.944201325293314</v>
+        <v>0.9442013219174413</v>
       </c>
       <c r="QU3" t="n">
-        <v>389737.3284562267</v>
+        <v>389737.3281732997</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.707408081203544</v>
+        <v>2.707408081727396</v>
       </c>
       <c r="QW3" t="n">
-        <v>382004.3040077447</v>
+        <v>382004.3040146229</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>3957.189596359734</v>
+        <v>3957.189601036604</v>
       </c>
       <c r="QZ3" t="n">
-        <v>4.691883729101392</v>
+        <v>4.691883685105317</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.009686081328401274</v>
+        <v>0.009686081333996687</v>
       </c>
       <c r="RB3" t="n">
         <v>0</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02844532000006398</v>
+        <v>0.02844532002932781</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01481990165265603</v>
+        <v>0.01481990167004444</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004957018966526217</v>
+        <v>0.004957018975202511</v>
       </c>
     </row>
   </sheetData>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4270731818072656</v>
+        <v>0.427073153162769</v>
       </c>
     </row>
     <row r="3">
@@ -11138,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4476684373073241</v>
+        <v>0.447668438032037</v>
       </c>
     </row>
   </sheetData>
@@ -11922,13 +11922,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>1.178474816344378e-07</v>
+        <v>5.259176884258012e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11950,16 +11950,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H3" t="n">
-        <v>3.182558199749619e-09</v>
+        <v>4.730954283498989e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
